--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_8_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1921399.401158673</v>
+        <v>1890315.957523876</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>226.3126112409501</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>132.8831901318163</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,16 +746,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>50.42174264793019</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -794,13 +794,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>133.6968735052119</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>145.8351811928814</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>125.8496874429632</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>34.16314038113742</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>34.43262080054094</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>31.00907095894639</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>44.82824400448693</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -1037,13 +1037,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>230.4587334634636</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>19.32010918448169</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>21.95040423664721</v>
       </c>
       <c r="F8" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>185.2757038757784</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -1183,7 +1183,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>121.3870526443715</v>
       </c>
       <c r="H9" t="n">
-        <v>95.33468221218759</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1262,7 +1262,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.2562914364127</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>82.43216989169802</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>135.0829025420496</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
@@ -1438,7 +1438,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>284.5135153825767</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>114.1606227488095</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>65.62087511199726</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5609956070679</v>
+        <v>364.5859061817031</v>
       </c>
       <c r="H14" t="n">
         <v>325.5814052293737</v>
@@ -1657,19 +1657,19 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
-        <v>116.7190371460551</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>107.7032865414582</v>
       </c>
       <c r="E16" t="n">
-        <v>11.26597710780042</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>340.5858930800359</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
         <v>410.9480201594387</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>27.23435056966956</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>239.5662674333007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7812841491240761</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>203.7950511593192</v>
       </c>
       <c r="T19" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>201.1732795230717</v>
+        <v>81.74018262309535</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>82.04176586163589</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>390.8378626949542</v>
@@ -2095,13 +2095,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9480201594387</v>
+        <v>272.4460692454938</v>
       </c>
       <c r="H20" t="n">
         <v>319.3037704263417</v>
       </c>
       <c r="I20" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>27.23435056966956</v>
+        <v>27.23435056966957</v>
       </c>
       <c r="S20" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.7600659609929</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>55.51550470019657</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>127.959751934126</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.4766426816473</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
@@ -2335,10 +2335,10 @@
         <v>410.9480201594387</v>
       </c>
       <c r="H23" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>96.30632133264402</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>27.23435056966957</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>216.5768297200476</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,13 +2493,13 @@
         <v>166.7842613601147</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>27.90397835000485</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>112.9486574967566</v>
+        <v>95.55868265138022</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2557,16 +2557,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>59.42544678646047</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>27.23435056966956</v>
+        <v>27.23435056966957</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T26" t="n">
         <v>217.7600659609929</v>
@@ -2614,10 +2614,10 @@
         <v>252.2568888014727</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>33.79446896678179</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.28908437427249</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>151.2974995358638</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>27.90397835000486</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>250.9838375424083</v>
       </c>
       <c r="G29" t="n">
         <v>410.9480201594387</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>27.23435056966957</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>372.3854763363992</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>164.4179910964864</v>
       </c>
       <c r="D31" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>86.28863074806337</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.7842613601147</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>37.68330921655446</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>27.23435056966957</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>164.6518688585695</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U32" t="n">
         <v>252.2568888014727</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
         <v>358.909580840975</v>
@@ -3097,7 +3097,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3240,22 +3240,22 @@
         <v>203.7950511593192</v>
       </c>
       <c r="T34" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>175.7885210327871</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>176.7880272515237</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.719629949125749</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H35" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>27.23435056966956</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T35" t="n">
         <v>217.7600659609929</v>
@@ -3331,10 +3331,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>199.9715097777519</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -3441,10 +3441,10 @@
         <v>166.7842613601147</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>123.4217501001193</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>33.06963087662964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>366.7576040283303</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>206.101918990354</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>27.23435056966956</v>
       </c>
       <c r="S38" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>121.4339726785313</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.7842613601147</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>93.2431093430982</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>295.6474156765196</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>410.0096787829314</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>27.23435056966956</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>139.1563079494267</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>60.1229377585959</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>95.99943845797159</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>27.23435056966956</v>
       </c>
       <c r="S44" t="n">
-        <v>137.5162321523728</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>147.0739968500598</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U46" t="n">
-        <v>169.8192291489879</v>
+        <v>160.7679215412561</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237.0158240472368</v>
+        <v>837.4373932780848</v>
       </c>
       <c r="C2" t="n">
-        <v>237.0158240472368</v>
+        <v>455.5036346108921</v>
       </c>
       <c r="D2" t="n">
-        <v>237.0158240472368</v>
+        <v>455.5036346108921</v>
       </c>
       <c r="E2" t="n">
-        <v>237.0158240472368</v>
+        <v>455.5036346108921</v>
       </c>
       <c r="F2" t="n">
         <v>226.9050373978112</v>
@@ -4330,10 +4330,10 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740046</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L2" t="n">
         <v>702.0485455037335</v>
@@ -4354,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>1966.987360482369</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T2" t="n">
-        <v>1966.987360482369</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U2" t="n">
-        <v>1712.102024196363</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V2" t="n">
-        <v>1375.122750092304</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="W2" t="n">
-        <v>1012.587819949905</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="X2" t="n">
-        <v>630.5576794713988</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="Y2" t="n">
-        <v>237.0158240472368</v>
+        <v>1231.480932796104</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>786.6432185531175</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C3" t="n">
-        <v>624.9395457940723</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D3" t="n">
-        <v>486.1009087842844</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E3" t="n">
-        <v>339.0728988411556</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="F3" t="n">
-        <v>339.0728988411556</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G3" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H3" t="n">
         <v>110.4065414111382</v>
@@ -4418,16 +4418,16 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P3" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
@@ -4442,19 +4442,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U3" t="n">
-        <v>1699.943945333632</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V3" t="n">
-        <v>1471.548322781966</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W3" t="n">
-        <v>1336.500975807005</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X3" t="n">
-        <v>1138.583987684799</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y3" t="n">
-        <v>946.0626613343784</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.3897585182198</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="C4" t="n">
-        <v>249.3897585182198</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="D4" t="n">
-        <v>102.0814946870265</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="E4" t="n">
-        <v>102.0814946870265</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="F4" t="n">
-        <v>102.0814946870265</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="G4" t="n">
-        <v>102.0814946870265</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="H4" t="n">
-        <v>102.0814946870265</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4509,31 +4509,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V4" t="n">
-        <v>535.5461600008207</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W4" t="n">
-        <v>249.3897585182198</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="X4" t="n">
-        <v>249.3897585182198</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.3897585182198</v>
+        <v>313.3481969055543</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1417.775706648727</v>
+        <v>618.9495827144294</v>
       </c>
       <c r="C5" t="n">
-        <v>1035.841947981534</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="D5" t="n">
-        <v>1035.841947981534</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="E5" t="n">
-        <v>641.0562280876409</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="F5" t="n">
         <v>226.9050373978112</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T5" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U5" t="n">
-        <v>1846.327468773955</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V5" t="n">
-        <v>1811.819246166746</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W5" t="n">
-        <v>1811.819246166746</v>
+        <v>1788.565118135117</v>
       </c>
       <c r="X5" t="n">
-        <v>1811.819246166746</v>
+        <v>1406.53497765661</v>
       </c>
       <c r="Y5" t="n">
-        <v>1811.819246166746</v>
+        <v>1012.993122232449</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>813.8206734913811</v>
+        <v>703.195773126389</v>
       </c>
       <c r="C6" t="n">
-        <v>652.1170007323358</v>
+        <v>541.4921003673437</v>
       </c>
       <c r="D6" t="n">
-        <v>620.7947068344101</v>
+        <v>402.6534633575558</v>
       </c>
       <c r="E6" t="n">
-        <v>473.7666968912813</v>
+        <v>255.625453414427</v>
       </c>
       <c r="F6" t="n">
-        <v>339.0728988411556</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G6" t="n">
         <v>210.3443988644402</v>
@@ -4649,22 +4649,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>252.8463055811703</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>252.8463055811703</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M6" t="n">
-        <v>737.8796590913968</v>
+        <v>816.8023087047204</v>
       </c>
       <c r="N6" t="n">
-        <v>1249.145305214519</v>
+        <v>1328.067954827843</v>
       </c>
       <c r="O6" t="n">
-        <v>1641.34525599867</v>
+        <v>1720.267905611993</v>
       </c>
       <c r="P6" t="n">
-        <v>1943.441175274367</v>
+        <v>2022.363824887691</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
@@ -4685,13 +4685,13 @@
         <v>1253.053530380276</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913811</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y6" t="n">
-        <v>813.8206734913811</v>
+        <v>862.6152159076499</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.02425610119923</v>
+        <v>371.0128708602451</v>
       </c>
       <c r="C7" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="E7" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="F7" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="H7" t="n">
         <v>42.02425610119923</v>
@@ -4746,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>274.8108555592433</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.02425610119923</v>
+        <v>554.5682395446249</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.989123613633</v>
+        <v>1067.268757619608</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.989123613633</v>
+        <v>1067.268757619608</v>
       </c>
       <c r="D8" t="n">
-        <v>1222.989123613633</v>
+        <v>1067.268757619608</v>
       </c>
       <c r="E8" t="n">
-        <v>828.2034037197402</v>
+        <v>1045.096632128045</v>
       </c>
       <c r="F8" t="n">
-        <v>414.0522130299105</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G8" t="n">
-        <v>401.9886305245026</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H8" t="n">
         <v>214.8414548924032</v>
@@ -4831,25 +4831,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V8" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W8" t="n">
-        <v>2010.574518555815</v>
+        <v>1460.81061304377</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.574518555815</v>
+        <v>1460.81061304377</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.032663131652</v>
+        <v>1067.268757619608</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.2993471409599</v>
+        <v>614.6793913469587</v>
       </c>
       <c r="C9" t="n">
-        <v>621.2993471409599</v>
+        <v>614.6793913469587</v>
       </c>
       <c r="D9" t="n">
-        <v>482.4607101311719</v>
+        <v>614.6793913469587</v>
       </c>
       <c r="E9" t="n">
-        <v>335.4327001880432</v>
+        <v>467.6513814038299</v>
       </c>
       <c r="F9" t="n">
-        <v>335.4327001880432</v>
+        <v>332.9575833537043</v>
       </c>
       <c r="G9" t="n">
-        <v>206.7042002113277</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4895,13 +4895,13 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1693.889799997958</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4910,25 +4910,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1634.248639919202</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1405.853017367536</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1164.537148600846</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>966.6201604786407</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>774.0988341282196</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4992,22 +4992,22 @@
         <v>386.0243786151989</v>
       </c>
       <c r="T10" t="n">
-        <v>386.0243786151989</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="U10" t="n">
-        <v>302.7595605427766</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="V10" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>345.2445847383495</v>
+        <v>795.442201146388</v>
       </c>
       <c r="C11" t="n">
-        <v>345.2445847383495</v>
+        <v>795.442201146388</v>
       </c>
       <c r="D11" t="n">
-        <v>345.2445847383495</v>
+        <v>795.442201146388</v>
       </c>
       <c r="E11" t="n">
-        <v>345.2445847383495</v>
+        <v>795.442201146388</v>
       </c>
       <c r="F11" t="n">
-        <v>208.797208433249</v>
+        <v>795.442201146388</v>
       </c>
       <c r="G11" t="n">
-        <v>208.797208433249</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H11" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I11" t="n">
         <v>50.85391747321462</v>
@@ -5068,25 +5068,25 @@
         <v>2476.292672113454</v>
       </c>
       <c r="S11" t="n">
-        <v>2297.855323089771</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="T11" t="n">
-        <v>2075.185256440287</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="U11" t="n">
-        <v>1820.330784887476</v>
+        <v>2221.438200560643</v>
       </c>
       <c r="V11" t="n">
-        <v>1483.351510783417</v>
+        <v>2221.438200560643</v>
       </c>
       <c r="W11" t="n">
-        <v>1120.816580641018</v>
+        <v>1858.903270418244</v>
       </c>
       <c r="X11" t="n">
-        <v>738.7864401625116</v>
+        <v>1476.873129939737</v>
       </c>
       <c r="Y11" t="n">
-        <v>345.2445847383495</v>
+        <v>1189.485740664407</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421042</v>
       </c>
       <c r="C12" t="n">
-        <v>759.1557230830592</v>
+        <v>759.155723083059</v>
       </c>
       <c r="D12" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732712</v>
       </c>
       <c r="E12" t="n">
-        <v>473.2890761301425</v>
+        <v>473.2890761301423</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5952780800169</v>
+        <v>338.5952780800167</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0732042050874</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H12" t="n">
-        <v>112.1289883137705</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I12" t="n">
-        <v>50.85391747321523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>130.2226992162555</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K12" t="n">
-        <v>251.6973914949265</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L12" t="n">
-        <v>661.4480243753522</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M12" t="n">
-        <v>1197.744201156453</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N12" t="n">
-        <v>1761.629444945137</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.966047520445</v>
+        <v>2342.651863910041</v>
       </c>
       <c r="P12" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.695873660731</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.85391747321462</v>
+        <v>493.6176255497974</v>
       </c>
       <c r="C13" t="n">
-        <v>50.85391747321462</v>
+        <v>324.0016560114776</v>
       </c>
       <c r="D13" t="n">
-        <v>50.85391747321462</v>
+        <v>324.0016560114776</v>
       </c>
       <c r="E13" t="n">
-        <v>50.85391747321462</v>
+        <v>324.0016560114776</v>
       </c>
       <c r="F13" t="n">
-        <v>50.85391747321462</v>
+        <v>324.0016560114776</v>
       </c>
       <c r="G13" t="n">
-        <v>50.85391747321462</v>
+        <v>324.0016560114776</v>
       </c>
       <c r="H13" t="n">
-        <v>50.85391747321462</v>
+        <v>166.1676778255475</v>
       </c>
       <c r="I13" t="n">
         <v>50.85391747321462</v>
@@ -5220,31 +5220,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q13" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R13" t="n">
-        <v>559.0838802267906</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S13" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T13" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U13" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="V13" t="n">
-        <v>282.1063815778389</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="W13" t="n">
-        <v>282.1063815778389</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="X13" t="n">
-        <v>50.85391747321462</v>
+        <v>493.6176255497974</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.85391747321462</v>
+        <v>493.6176255497974</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1964.351115276187</v>
+        <v>1120.816580641018</v>
       </c>
       <c r="C14" t="n">
-        <v>1582.417356608994</v>
+        <v>1120.816580641018</v>
       </c>
       <c r="D14" t="n">
-        <v>1209.593391836218</v>
+        <v>747.9926158682417</v>
       </c>
       <c r="E14" t="n">
-        <v>1209.593391836218</v>
+        <v>747.9926158682417</v>
       </c>
       <c r="F14" t="n">
-        <v>795.442201146388</v>
+        <v>747.9926158682417</v>
       </c>
       <c r="G14" t="n">
         <v>379.7240237655113</v>
@@ -5278,19 +5278,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J14" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K14" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L14" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O14" t="n">
         <v>2124.896977382889</v>
@@ -5305,25 +5305,25 @@
         <v>2476.292672113454</v>
       </c>
       <c r="S14" t="n">
-        <v>2358.394654794206</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T14" t="n">
-        <v>2358.394654794206</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U14" t="n">
-        <v>2358.394654794206</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="V14" t="n">
-        <v>2358.394654794206</v>
+        <v>1483.351510783417</v>
       </c>
       <c r="W14" t="n">
-        <v>2358.394654794206</v>
+        <v>1120.816580641018</v>
       </c>
       <c r="X14" t="n">
-        <v>2358.394654794206</v>
+        <v>1120.816580641018</v>
       </c>
       <c r="Y14" t="n">
-        <v>2358.394654794206</v>
+        <v>1120.816580641018</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C15" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D15" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E15" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G15" t="n">
         <v>210.0732042050868</v>
       </c>
       <c r="H15" t="n">
-        <v>112.1289883137697</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I15" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J15" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K15" t="n">
-        <v>130.2226992162549</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L15" t="n">
-        <v>539.9733320966807</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M15" t="n">
-        <v>1076.269508877781</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N15" t="n">
-        <v>1640.154752666466</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.491355241773</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P15" t="n">
-        <v>2421.221181382059</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q15" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R15" t="n">
         <v>2495.728130619192</v>
@@ -5387,16 +5387,16 @@
         <v>2346.762917934841</v>
       </c>
       <c r="T15" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V15" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W15" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X15" t="n">
         <v>1272.800164973786</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.23369232957867</v>
+        <v>464.1347852128442</v>
       </c>
       <c r="C16" t="n">
-        <v>62.23369232957867</v>
+        <v>464.1347852128442</v>
       </c>
       <c r="D16" t="n">
-        <v>62.23369232957867</v>
+        <v>355.3435866861187</v>
       </c>
       <c r="E16" t="n">
-        <v>50.85391747321462</v>
+        <v>203.3345724474375</v>
       </c>
       <c r="F16" t="n">
         <v>50.85391747321462</v>
@@ -5457,31 +5457,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q16" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R16" t="n">
-        <v>559.0838802267906</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S16" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T16" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U16" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="V16" t="n">
-        <v>348.3900938121795</v>
+        <v>464.1347852128442</v>
       </c>
       <c r="W16" t="n">
-        <v>62.23369232957867</v>
+        <v>464.1347852128442</v>
       </c>
       <c r="X16" t="n">
-        <v>62.23369232957867</v>
+        <v>464.1347852128442</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.23369232957867</v>
+        <v>464.1347852128442</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1704.334835408325</v>
+        <v>1350.876341431485</v>
       </c>
       <c r="C17" t="n">
-        <v>1704.334835408325</v>
+        <v>1350.876341431485</v>
       </c>
       <c r="D17" t="n">
-        <v>1331.510870635549</v>
+        <v>1350.876341431485</v>
       </c>
       <c r="E17" t="n">
-        <v>936.7251507416557</v>
+        <v>1350.876341431485</v>
       </c>
       <c r="F17" t="n">
         <v>936.7251507416557</v>
@@ -5515,16 +5515,16 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J17" t="n">
-        <v>220.6214864603402</v>
+        <v>220.6214864603401</v>
       </c>
       <c r="K17" t="n">
-        <v>586.0546590956335</v>
+        <v>586.0546590956334</v>
       </c>
       <c r="L17" t="n">
-        <v>1089.376830460402</v>
+        <v>1089.376830460403</v>
       </c>
       <c r="M17" t="n">
-        <v>1655.569384264474</v>
+        <v>1655.569384264475</v>
       </c>
       <c r="N17" t="n">
         <v>2209.652697130949</v>
@@ -5539,28 +5539,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R17" t="n">
-        <v>3223.701996533048</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="S17" t="n">
-        <v>3059.373918229416</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="T17" t="n">
-        <v>3059.373918229416</v>
+        <v>3031.251778966054</v>
       </c>
       <c r="U17" t="n">
-        <v>3059.373918229416</v>
+        <v>2776.446840782748</v>
       </c>
       <c r="V17" t="n">
-        <v>2722.394644125357</v>
+        <v>2439.46756667869</v>
       </c>
       <c r="W17" t="n">
-        <v>2722.394644125357</v>
+        <v>2076.932636536291</v>
       </c>
       <c r="X17" t="n">
-        <v>2340.36450364685</v>
+        <v>1694.902496057784</v>
       </c>
       <c r="Y17" t="n">
-        <v>2098.378374926344</v>
+        <v>1694.902496057784</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J18" t="n">
-        <v>175.0691963307609</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="K18" t="n">
-        <v>489.6601924881446</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="L18" t="n">
-        <v>969.9100861217185</v>
+        <v>545.2741224646322</v>
       </c>
       <c r="M18" t="n">
-        <v>1588.475574966436</v>
+        <v>1163.83961130935</v>
       </c>
       <c r="N18" t="n">
-        <v>1619.89391892893</v>
+        <v>1812.171591051997</v>
       </c>
       <c r="O18" t="n">
-        <v>2137.482786893108</v>
+        <v>2111.11859027128</v>
       </c>
       <c r="P18" t="n">
         <v>2513.850170066159</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
       <c r="C19" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
       <c r="D19" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
       <c r="E19" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
       <c r="F19" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
       <c r="G19" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
       <c r="H19" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
       <c r="I19" t="n">
         <v>65.02422883105832</v>
@@ -5694,31 +5694,31 @@
         <v>966.8604463484278</v>
       </c>
       <c r="Q19" t="n">
-        <v>966.0712704402216</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="R19" t="n">
-        <v>966.0712704402216</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="S19" t="n">
-        <v>760.2176834106062</v>
+        <v>761.0068593188124</v>
       </c>
       <c r="T19" t="n">
-        <v>528.9648661242234</v>
+        <v>761.0068593188124</v>
       </c>
       <c r="U19" t="n">
-        <v>528.9648661242234</v>
+        <v>761.0068593188124</v>
       </c>
       <c r="V19" t="n">
-        <v>268.229561682646</v>
+        <v>500.271554877235</v>
       </c>
       <c r="W19" t="n">
-        <v>268.229561682646</v>
+        <v>500.271554877235</v>
       </c>
       <c r="X19" t="n">
-        <v>65.02422883105832</v>
+        <v>417.7057138438054</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1828.532531892688</v>
+        <v>1853.622008861606</v>
       </c>
       <c r="C20" t="n">
-        <v>1828.532531892688</v>
+        <v>1471.688250194413</v>
       </c>
       <c r="D20" t="n">
-        <v>1745.662061325379</v>
+        <v>1471.688250194413</v>
       </c>
       <c r="E20" t="n">
-        <v>1350.876341431485</v>
+        <v>1076.90253030052</v>
       </c>
       <c r="F20" t="n">
-        <v>936.7251507416557</v>
+        <v>662.7513396106901</v>
       </c>
       <c r="G20" t="n">
-        <v>521.6261404795964</v>
+        <v>387.553289867767</v>
       </c>
       <c r="H20" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="I20" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="J20" t="n">
         <v>220.6214864603401</v>
@@ -5773,31 +5773,31 @@
         <v>3050.412725244259</v>
       </c>
       <c r="Q20" t="n">
-        <v>3251.211441552916</v>
+        <v>3251.211441552915</v>
       </c>
       <c r="R20" t="n">
-        <v>3223.701996533048</v>
+        <v>3223.701996533047</v>
       </c>
       <c r="S20" t="n">
-        <v>3059.373918229416</v>
+        <v>3223.701996533047</v>
       </c>
       <c r="T20" t="n">
-        <v>2839.414255642554</v>
+        <v>3003.742333946186</v>
       </c>
       <c r="U20" t="n">
-        <v>2584.609317459248</v>
+        <v>3003.742333946186</v>
       </c>
       <c r="V20" t="n">
-        <v>2584.609317459248</v>
+        <v>3003.742333946186</v>
       </c>
       <c r="W20" t="n">
-        <v>2222.074387316849</v>
+        <v>2641.207403803787</v>
       </c>
       <c r="X20" t="n">
-        <v>2222.074387316849</v>
+        <v>2641.207403803787</v>
       </c>
       <c r="Y20" t="n">
-        <v>1828.532531892688</v>
+        <v>2247.665548379625</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>114.8932629421267</v>
       </c>
       <c r="I21" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="J21" t="n">
         <v>175.0691963307609</v>
       </c>
       <c r="K21" t="n">
-        <v>175.0691963307609</v>
+        <v>489.6601924881446</v>
       </c>
       <c r="L21" t="n">
-        <v>655.3190899643348</v>
+        <v>969.9100861217185</v>
       </c>
       <c r="M21" t="n">
-        <v>945.1977425644553</v>
+        <v>1588.475574966436</v>
       </c>
       <c r="N21" t="n">
-        <v>1593.529722307103</v>
+        <v>2236.807554709083</v>
       </c>
       <c r="O21" t="n">
-        <v>2111.11859027128</v>
+        <v>2513.850170066159</v>
       </c>
       <c r="P21" t="n">
         <v>2513.850170066159</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2575.067460947802</v>
+        <v>387.7120915416153</v>
       </c>
       <c r="C22" t="n">
-        <v>2405.451491409483</v>
+        <v>218.0961220032956</v>
       </c>
       <c r="D22" t="n">
-        <v>2405.451491409483</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="E22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="F22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="G22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="H22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="I22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="J22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="K22" t="n">
-        <v>2434.311662932989</v>
+        <v>149.9606677285005</v>
       </c>
       <c r="L22" t="n">
-        <v>2600.606350733317</v>
+        <v>316.2553555288283</v>
       </c>
       <c r="M22" t="n">
-        <v>2787.858229836482</v>
+        <v>503.5072346319942</v>
       </c>
       <c r="N22" t="n">
-        <v>2973.892135252363</v>
+        <v>689.5411400478749</v>
       </c>
       <c r="O22" t="n">
-        <v>3134.806004042553</v>
+        <v>850.4550088380651</v>
       </c>
       <c r="P22" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="Q22" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="R22" t="n">
-        <v>3121.95916687198</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="S22" t="n">
-        <v>3121.95916687198</v>
+        <v>850.2173729326224</v>
       </c>
       <c r="T22" t="n">
-        <v>3121.95916687198</v>
+        <v>618.9645556462395</v>
       </c>
       <c r="U22" t="n">
-        <v>3121.95916687198</v>
+        <v>618.9645556462395</v>
       </c>
       <c r="V22" t="n">
-        <v>2861.223862430403</v>
+        <v>618.9645556462395</v>
       </c>
       <c r="W22" t="n">
-        <v>2575.067460947802</v>
+        <v>618.9645556462395</v>
       </c>
       <c r="X22" t="n">
-        <v>2575.067460947802</v>
+        <v>387.7120915416153</v>
       </c>
       <c r="Y22" t="n">
-        <v>2575.067460947802</v>
+        <v>387.7120915416153</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2463.626046610735</v>
+        <v>1670.993908344033</v>
       </c>
       <c r="C23" t="n">
-        <v>2081.692287943542</v>
+        <v>1289.06014967684</v>
       </c>
       <c r="D23" t="n">
-        <v>1708.868323170766</v>
+        <v>1289.06014967684</v>
       </c>
       <c r="E23" t="n">
-        <v>1314.082603276872</v>
+        <v>894.2744297829473</v>
       </c>
       <c r="F23" t="n">
-        <v>899.9314125870426</v>
+        <v>480.1232390931177</v>
       </c>
       <c r="G23" t="n">
-        <v>484.8324023249833</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H23" t="n">
-        <v>162.3033412882745</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I23" t="n">
         <v>65.02422883105832</v>
       </c>
       <c r="J23" t="n">
-        <v>220.6214864603401</v>
+        <v>220.6214864603398</v>
       </c>
       <c r="K23" t="n">
-        <v>586.0546590956333</v>
+        <v>586.0546590956332</v>
       </c>
       <c r="L23" t="n">
         <v>1089.376830460402</v>
@@ -6013,28 +6013,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R23" t="n">
-        <v>3251.211441552916</v>
+        <v>3223.701996533048</v>
       </c>
       <c r="S23" t="n">
-        <v>3251.211441552916</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="T23" t="n">
-        <v>3251.211441552916</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="U23" t="n">
-        <v>3251.211441552916</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="V23" t="n">
-        <v>3251.211441552916</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="W23" t="n">
-        <v>3251.211441552916</v>
+        <v>2840.609443764721</v>
       </c>
       <c r="X23" t="n">
-        <v>3251.211441552916</v>
+        <v>2458.579303286214</v>
       </c>
       <c r="Y23" t="n">
-        <v>2857.669586128754</v>
+        <v>2065.037447862052</v>
       </c>
     </row>
     <row r="24">
@@ -6077,13 +6077,13 @@
         <v>545.2741224646322</v>
       </c>
       <c r="M24" t="n">
-        <v>945.1977425644553</v>
+        <v>1163.83961130935</v>
       </c>
       <c r="N24" t="n">
-        <v>1593.529722307103</v>
+        <v>1812.171591051997</v>
       </c>
       <c r="O24" t="n">
-        <v>2111.11859027128</v>
+        <v>2329.760459016175</v>
       </c>
       <c r="P24" t="n">
         <v>2513.850170066159</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>852.7708933214009</v>
+        <v>233.4931796998611</v>
       </c>
       <c r="C25" t="n">
-        <v>852.7708933214009</v>
+        <v>233.4931796998611</v>
       </c>
       <c r="D25" t="n">
-        <v>699.6990001491636</v>
+        <v>233.4931796998611</v>
       </c>
       <c r="E25" t="n">
-        <v>547.6899859104824</v>
+        <v>233.4931796998611</v>
       </c>
       <c r="F25" t="n">
-        <v>547.6899859104824</v>
+        <v>233.4931796998611</v>
       </c>
       <c r="G25" t="n">
-        <v>379.2210350416797</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H25" t="n">
-        <v>223.8563917532591</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I25" t="n">
-        <v>93.21006554823495</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="J25" t="n">
         <v>65.02422883105832</v>
@@ -6177,22 +6177,22 @@
         <v>966.8604463484278</v>
       </c>
       <c r="T25" t="n">
-        <v>966.8604463484278</v>
+        <v>735.6076290620449</v>
       </c>
       <c r="U25" t="n">
-        <v>966.8604463484278</v>
+        <v>735.6076290620449</v>
       </c>
       <c r="V25" t="n">
-        <v>852.7708933214009</v>
+        <v>639.0837071919639</v>
       </c>
       <c r="W25" t="n">
-        <v>852.7708933214009</v>
+        <v>639.0837071919639</v>
       </c>
       <c r="X25" t="n">
-        <v>852.7708933214009</v>
+        <v>639.0837071919639</v>
       </c>
       <c r="Y25" t="n">
-        <v>852.7708933214009</v>
+        <v>417.0485483842409</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>879.807656095735</v>
+        <v>1380.857954799387</v>
       </c>
       <c r="C26" t="n">
-        <v>497.8738974285423</v>
+        <v>1380.857954799387</v>
       </c>
       <c r="D26" t="n">
-        <v>125.0499326557659</v>
+        <v>1008.033990026611</v>
       </c>
       <c r="E26" t="n">
-        <v>125.0499326557659</v>
+        <v>613.2482701327174</v>
       </c>
       <c r="F26" t="n">
-        <v>65.02422883105832</v>
+        <v>199.0970794428877</v>
       </c>
       <c r="G26" t="n">
-        <v>65.02422883105832</v>
+        <v>199.0970794428877</v>
       </c>
       <c r="H26" t="n">
-        <v>65.02422883105832</v>
+        <v>199.0970794428877</v>
       </c>
       <c r="I26" t="n">
         <v>65.02422883105832</v>
       </c>
       <c r="J26" t="n">
-        <v>220.6214864603401</v>
+        <v>220.6214864603403</v>
       </c>
       <c r="K26" t="n">
-        <v>586.0546590956333</v>
+        <v>586.0546590956337</v>
       </c>
       <c r="L26" t="n">
-        <v>1089.376830460402</v>
+        <v>1089.376830460403</v>
       </c>
       <c r="M26" t="n">
-        <v>1655.569384264474</v>
+        <v>1655.569384264475</v>
       </c>
       <c r="N26" t="n">
         <v>2209.652697130949</v>
@@ -6253,25 +6253,25 @@
         <v>3223.701996533048</v>
       </c>
       <c r="S26" t="n">
-        <v>3223.701996533048</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="T26" t="n">
-        <v>3003.742333946186</v>
+        <v>2839.414255642554</v>
       </c>
       <c r="U26" t="n">
-        <v>2748.93739576288</v>
+        <v>2584.609317459248</v>
       </c>
       <c r="V26" t="n">
-        <v>2411.958121658822</v>
+        <v>2550.473490220075</v>
       </c>
       <c r="W26" t="n">
-        <v>2049.423191516423</v>
+        <v>2550.473490220075</v>
       </c>
       <c r="X26" t="n">
-        <v>1667.393051037916</v>
+        <v>2168.443349741568</v>
       </c>
       <c r="Y26" t="n">
-        <v>1273.851195613754</v>
+        <v>1774.901494317406</v>
       </c>
     </row>
     <row r="27">
@@ -6308,13 +6308,13 @@
         <v>65.02422883105832</v>
       </c>
       <c r="K27" t="n">
-        <v>65.02422883105832</v>
+        <v>379.6152249884421</v>
       </c>
       <c r="L27" t="n">
-        <v>545.2741224646322</v>
+        <v>859.865118622016</v>
       </c>
       <c r="M27" t="n">
-        <v>1163.83961130935</v>
+        <v>1478.430607466733</v>
       </c>
       <c r="N27" t="n">
         <v>1593.529722307103</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.02422883105832</v>
+        <v>529.7540420324295</v>
       </c>
       <c r="C28" t="n">
-        <v>65.02422883105832</v>
+        <v>529.7540420324295</v>
       </c>
       <c r="D28" t="n">
-        <v>65.02422883105832</v>
+        <v>376.6821488601922</v>
       </c>
       <c r="E28" t="n">
-        <v>65.02422883105832</v>
+        <v>376.6821488601922</v>
       </c>
       <c r="F28" t="n">
-        <v>65.02422883105832</v>
+        <v>376.6821488601922</v>
       </c>
       <c r="G28" t="n">
-        <v>65.02422883105832</v>
+        <v>376.6821488601922</v>
       </c>
       <c r="H28" t="n">
-        <v>65.02422883105832</v>
+        <v>223.8563917532591</v>
       </c>
       <c r="I28" t="n">
-        <v>65.02422883105832</v>
+        <v>93.21006554823495</v>
       </c>
       <c r="J28" t="n">
         <v>65.02422883105832</v>
@@ -6411,25 +6411,25 @@
         <v>966.8604463484278</v>
       </c>
       <c r="S28" t="n">
-        <v>966.8604463484278</v>
+        <v>761.0068593188124</v>
       </c>
       <c r="T28" t="n">
-        <v>966.8604463484278</v>
+        <v>529.7540420324295</v>
       </c>
       <c r="U28" t="n">
-        <v>679.6947958064375</v>
+        <v>529.7540420324295</v>
       </c>
       <c r="V28" t="n">
-        <v>679.6947958064375</v>
+        <v>529.7540420324295</v>
       </c>
       <c r="W28" t="n">
-        <v>393.5383943238366</v>
+        <v>529.7540420324295</v>
       </c>
       <c r="X28" t="n">
-        <v>162.2859302192124</v>
+        <v>529.7540420324295</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.2859302192124</v>
+        <v>529.7540420324295</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2118.486026098155</v>
+        <v>1190.24417856227</v>
       </c>
       <c r="C29" t="n">
-        <v>2118.486026098155</v>
+        <v>1190.24417856227</v>
       </c>
       <c r="D29" t="n">
-        <v>1745.662061325379</v>
+        <v>1190.24417856227</v>
       </c>
       <c r="E29" t="n">
-        <v>1350.876341431485</v>
+        <v>1190.24417856227</v>
       </c>
       <c r="F29" t="n">
         <v>936.7251507416557</v>
@@ -6469,7 +6469,7 @@
         <v>586.0546590956334</v>
       </c>
       <c r="L29" t="n">
-        <v>1089.376830460402</v>
+        <v>1089.376830460403</v>
       </c>
       <c r="M29" t="n">
         <v>1655.569384264474</v>
@@ -6487,28 +6487,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R29" t="n">
-        <v>3251.211441552916</v>
+        <v>3223.701996533048</v>
       </c>
       <c r="S29" t="n">
-        <v>3251.211441552916</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="T29" t="n">
-        <v>3251.211441552916</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="U29" t="n">
-        <v>3251.211441552916</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="V29" t="n">
-        <v>3251.211441552916</v>
+        <v>2722.394644125357</v>
       </c>
       <c r="W29" t="n">
-        <v>2888.676511410517</v>
+        <v>2359.859713982958</v>
       </c>
       <c r="X29" t="n">
-        <v>2512.529565616174</v>
+        <v>1977.829573504451</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.529565616174</v>
+        <v>1584.287718080289</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J30" t="n">
-        <v>175.0691963307609</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="K30" t="n">
-        <v>175.0691963307609</v>
+        <v>238.252092118891</v>
       </c>
       <c r="L30" t="n">
-        <v>655.3190899643348</v>
+        <v>718.5019857524649</v>
       </c>
       <c r="M30" t="n">
-        <v>1273.884578809052</v>
+        <v>1337.067474597182</v>
       </c>
       <c r="N30" t="n">
-        <v>1593.529722307103</v>
+        <v>1368.485818559677</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.11859027128</v>
+        <v>1886.074686523854</v>
       </c>
       <c r="P30" t="n">
-        <v>2513.850170066159</v>
+        <v>2288.806266318732</v>
       </c>
       <c r="Q30" t="n">
         <v>2513.850170066159</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2759.223319824956</v>
+        <v>552.0526135594238</v>
       </c>
       <c r="C31" t="n">
-        <v>2589.607350286636</v>
+        <v>385.9738346740839</v>
       </c>
       <c r="D31" t="n">
-        <v>2436.535457114398</v>
+        <v>385.9738346740839</v>
       </c>
       <c r="E31" t="n">
-        <v>2349.375224035547</v>
+        <v>385.9738346740839</v>
       </c>
       <c r="F31" t="n">
-        <v>2349.375224035547</v>
+        <v>233.4931796998611</v>
       </c>
       <c r="G31" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H31" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I31" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="J31" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="K31" t="n">
-        <v>2434.311662932989</v>
+        <v>149.9606677285005</v>
       </c>
       <c r="L31" t="n">
-        <v>2600.606350733317</v>
+        <v>316.2553555288283</v>
       </c>
       <c r="M31" t="n">
-        <v>2787.858229836482</v>
+        <v>503.5072346319942</v>
       </c>
       <c r="N31" t="n">
-        <v>2973.892135252363</v>
+        <v>689.5411400478749</v>
       </c>
       <c r="O31" t="n">
-        <v>3134.806004042553</v>
+        <v>850.4550088380651</v>
       </c>
       <c r="P31" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="Q31" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="R31" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="S31" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="T31" t="n">
-        <v>3019.958624266533</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="U31" t="n">
-        <v>3019.958624266533</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="V31" t="n">
-        <v>2759.223319824956</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="W31" t="n">
-        <v>2759.223319824956</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="X31" t="n">
-        <v>2759.223319824956</v>
+        <v>735.6079822438036</v>
       </c>
       <c r="Y31" t="n">
-        <v>2759.223319824956</v>
+        <v>735.6079822438036</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1691.482874181625</v>
+        <v>879.8076560957345</v>
       </c>
       <c r="C32" t="n">
-        <v>1309.549115514432</v>
+        <v>497.8738974285419</v>
       </c>
       <c r="D32" t="n">
-        <v>936.7251507416557</v>
+        <v>459.8099487249515</v>
       </c>
       <c r="E32" t="n">
-        <v>936.7251507416557</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="F32" t="n">
-        <v>936.7251507416557</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="G32" t="n">
-        <v>521.6261404795964</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="H32" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="I32" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="J32" t="n">
-        <v>220.6214864603403</v>
+        <v>220.6214864603398</v>
       </c>
       <c r="K32" t="n">
-        <v>586.0546590956337</v>
+        <v>586.0546590956332</v>
       </c>
       <c r="L32" t="n">
-        <v>1089.376830460403</v>
+        <v>1089.376830460402</v>
       </c>
       <c r="M32" t="n">
-        <v>1655.569384264475</v>
+        <v>1655.569384264474</v>
       </c>
       <c r="N32" t="n">
-        <v>2209.652697130949</v>
+        <v>2209.652697130948</v>
       </c>
       <c r="O32" t="n">
-        <v>2680.614868196115</v>
+        <v>2680.614868196114</v>
       </c>
       <c r="P32" t="n">
         <v>3050.412725244259</v>
       </c>
       <c r="Q32" t="n">
-        <v>3251.211441552916</v>
+        <v>3251.211441552915</v>
       </c>
       <c r="R32" t="n">
-        <v>3251.211441552916</v>
+        <v>3223.701996533047</v>
       </c>
       <c r="S32" t="n">
-        <v>3251.211441552916</v>
+        <v>3223.701996533047</v>
       </c>
       <c r="T32" t="n">
-        <v>3084.896422503856</v>
+        <v>3003.742333946186</v>
       </c>
       <c r="U32" t="n">
-        <v>2830.09148432055</v>
+        <v>2748.93739576288</v>
       </c>
       <c r="V32" t="n">
-        <v>2830.09148432055</v>
+        <v>2411.958121658821</v>
       </c>
       <c r="W32" t="n">
-        <v>2467.556554178151</v>
+        <v>2049.423191516422</v>
       </c>
       <c r="X32" t="n">
-        <v>2085.526413699644</v>
+        <v>1667.393051037916</v>
       </c>
       <c r="Y32" t="n">
-        <v>2085.526413699644</v>
+        <v>1273.851195613754</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>114.8932629421267</v>
       </c>
       <c r="I33" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="J33" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="K33" t="n">
-        <v>379.6152249884421</v>
+        <v>379.615224988442</v>
       </c>
       <c r="L33" t="n">
-        <v>859.865118622016</v>
+        <v>859.8651186220159</v>
       </c>
       <c r="M33" t="n">
         <v>1478.430607466733</v>
       </c>
       <c r="N33" t="n">
-        <v>1875.386623468828</v>
+        <v>1593.529722307103</v>
       </c>
       <c r="O33" t="n">
-        <v>1886.074686523854</v>
+        <v>2111.11859027128</v>
       </c>
       <c r="P33" t="n">
-        <v>2288.806266318732</v>
+        <v>2513.850170066159</v>
       </c>
       <c r="Q33" t="n">
         <v>2513.850170066159</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="C34" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="D34" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="E34" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="F34" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="G34" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="H34" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="I34" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="J34" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
       <c r="K34" t="n">
         <v>149.9606677285005</v>
@@ -6888,22 +6888,22 @@
         <v>761.0068593188124</v>
       </c>
       <c r="T34" t="n">
-        <v>529.7540420324295</v>
+        <v>761.0068593188124</v>
       </c>
       <c r="U34" t="n">
-        <v>242.5883914904392</v>
+        <v>761.0068593188124</v>
       </c>
       <c r="V34" t="n">
-        <v>65.02422883105832</v>
+        <v>761.0068593188124</v>
       </c>
       <c r="W34" t="n">
-        <v>65.02422883105832</v>
+        <v>474.8504578362115</v>
       </c>
       <c r="X34" t="n">
-        <v>65.02422883105832</v>
+        <v>243.5979937315873</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105831</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>907.317101115603</v>
+        <v>1289.06014967684</v>
       </c>
       <c r="C35" t="n">
-        <v>525.3833424484103</v>
+        <v>1289.06014967684</v>
       </c>
       <c r="D35" t="n">
-        <v>525.3833424484103</v>
+        <v>1289.06014967684</v>
       </c>
       <c r="E35" t="n">
-        <v>521.6261404795964</v>
+        <v>894.2744297829473</v>
       </c>
       <c r="F35" t="n">
-        <v>521.6261404795964</v>
+        <v>480.1232390931177</v>
       </c>
       <c r="G35" t="n">
-        <v>521.6261404795964</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H35" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I35" t="n">
         <v>65.02422883105832</v>
@@ -6961,28 +6961,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R35" t="n">
-        <v>3251.211441552916</v>
+        <v>3223.701996533048</v>
       </c>
       <c r="S35" t="n">
-        <v>3251.211441552916</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="T35" t="n">
-        <v>3031.251778966054</v>
+        <v>2839.414255642554</v>
       </c>
       <c r="U35" t="n">
-        <v>2776.446840782748</v>
+        <v>2584.609317459248</v>
       </c>
       <c r="V35" t="n">
-        <v>2439.46756667869</v>
+        <v>2247.63004335519</v>
       </c>
       <c r="W35" t="n">
-        <v>2076.932636536291</v>
+        <v>1885.095113212791</v>
       </c>
       <c r="X35" t="n">
-        <v>1694.902496057784</v>
+        <v>1683.103689194859</v>
       </c>
       <c r="Y35" t="n">
-        <v>1301.360640633622</v>
+        <v>1683.103689194859</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>175.0691963307609</v>
       </c>
       <c r="K36" t="n">
-        <v>175.0691963307609</v>
+        <v>489.6601924881446</v>
       </c>
       <c r="L36" t="n">
-        <v>655.3190899643348</v>
+        <v>969.9100861217185</v>
       </c>
       <c r="M36" t="n">
-        <v>1122.885418611907</v>
+        <v>1337.067474597182</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.217398354555</v>
+        <v>1368.485818559677</v>
       </c>
       <c r="O36" t="n">
-        <v>2288.806266318732</v>
+        <v>1886.074686523854</v>
       </c>
       <c r="P36" t="n">
         <v>2288.806266318732</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>386.5650728720983</v>
+        <v>842.1920119038629</v>
       </c>
       <c r="C37" t="n">
-        <v>386.5650728720983</v>
+        <v>672.5760423655431</v>
       </c>
       <c r="D37" t="n">
-        <v>233.4931796998611</v>
+        <v>519.5041491933058</v>
       </c>
       <c r="E37" t="n">
-        <v>233.4931796998611</v>
+        <v>519.5041491933058</v>
       </c>
       <c r="F37" t="n">
-        <v>233.4931796998611</v>
+        <v>519.5041491933058</v>
       </c>
       <c r="G37" t="n">
-        <v>65.02422883105832</v>
+        <v>351.0351983245031</v>
       </c>
       <c r="H37" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
       <c r="I37" t="n">
         <v>65.02422883105832</v>
@@ -7128,19 +7128,19 @@
         <v>966.8604463484278</v>
       </c>
       <c r="U37" t="n">
-        <v>966.8604463484278</v>
+        <v>842.1920119038629</v>
       </c>
       <c r="V37" t="n">
-        <v>706.1251419068503</v>
+        <v>842.1920119038629</v>
       </c>
       <c r="W37" t="n">
-        <v>419.9687404242495</v>
+        <v>842.1920119038629</v>
       </c>
       <c r="X37" t="n">
-        <v>419.9687404242495</v>
+        <v>842.1920119038629</v>
       </c>
       <c r="Y37" t="n">
-        <v>386.5650728720983</v>
+        <v>842.1920119038629</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1190.24417856227</v>
+        <v>1879.177664899946</v>
       </c>
       <c r="C38" t="n">
-        <v>808.3104198950775</v>
+        <v>1497.243906232754</v>
       </c>
       <c r="D38" t="n">
-        <v>435.4864551223011</v>
+        <v>1497.243906232754</v>
       </c>
       <c r="E38" t="n">
-        <v>65.02422883105832</v>
+        <v>1102.458186338861</v>
       </c>
       <c r="F38" t="n">
-        <v>65.02422883105832</v>
+        <v>688.3069956490308</v>
       </c>
       <c r="G38" t="n">
-        <v>65.02422883105832</v>
+        <v>273.2079853869715</v>
       </c>
       <c r="H38" t="n">
         <v>65.02422883105832</v>
@@ -7201,25 +7201,25 @@
         <v>3223.701996533048</v>
       </c>
       <c r="S38" t="n">
-        <v>3059.373918229416</v>
+        <v>3223.701996533048</v>
       </c>
       <c r="T38" t="n">
-        <v>3059.373918229416</v>
+        <v>3003.742333946186</v>
       </c>
       <c r="U38" t="n">
-        <v>3059.373918229416</v>
+        <v>3003.742333946186</v>
       </c>
       <c r="V38" t="n">
-        <v>2722.394644125357</v>
+        <v>2666.763059842127</v>
       </c>
       <c r="W38" t="n">
-        <v>2359.859713982958</v>
+        <v>2666.763059842127</v>
       </c>
       <c r="X38" t="n">
-        <v>1977.829573504451</v>
+        <v>2666.763059842127</v>
       </c>
       <c r="Y38" t="n">
-        <v>1584.287718080289</v>
+        <v>2273.221204417966</v>
       </c>
     </row>
     <row r="39">
@@ -7256,16 +7256,16 @@
         <v>65.02422883105832</v>
       </c>
       <c r="K39" t="n">
-        <v>65.02422883105832</v>
+        <v>379.6152249884421</v>
       </c>
       <c r="L39" t="n">
-        <v>545.2741224646322</v>
+        <v>859.865118622016</v>
       </c>
       <c r="M39" t="n">
-        <v>1163.83961130935</v>
+        <v>945.1977425644553</v>
       </c>
       <c r="N39" t="n">
-        <v>1812.171591051997</v>
+        <v>1593.529722307103</v>
       </c>
       <c r="O39" t="n">
         <v>2111.11859027128</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.6848072942212</v>
+        <v>689.1201187316256</v>
       </c>
       <c r="C40" t="n">
-        <v>187.6848072942212</v>
+        <v>519.5041491933058</v>
       </c>
       <c r="D40" t="n">
-        <v>187.6848072942212</v>
+        <v>519.5041491933058</v>
       </c>
       <c r="E40" t="n">
-        <v>65.02422883105832</v>
+        <v>519.5041491933058</v>
       </c>
       <c r="F40" t="n">
-        <v>65.02422883105832</v>
+        <v>519.5041491933058</v>
       </c>
       <c r="G40" t="n">
-        <v>65.02422883105832</v>
+        <v>351.0351983245031</v>
       </c>
       <c r="H40" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
       <c r="I40" t="n">
         <v>65.02422883105832</v>
@@ -7359,25 +7359,25 @@
         <v>966.8604463484278</v>
       </c>
       <c r="S40" t="n">
-        <v>761.0068593188124</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="T40" t="n">
-        <v>761.0068593188124</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="U40" t="n">
-        <v>473.8412087768221</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="V40" t="n">
-        <v>473.8412087768221</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="W40" t="n">
-        <v>187.6848072942212</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="X40" t="n">
-        <v>187.6848072942212</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="Y40" t="n">
-        <v>187.6848072942212</v>
+        <v>872.6754874160054</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.548551496907</v>
+        <v>846.938866830237</v>
       </c>
       <c r="C41" t="n">
-        <v>1232.614792829714</v>
+        <v>465.0051081630443</v>
       </c>
       <c r="D41" t="n">
-        <v>859.7908280569375</v>
+        <v>465.0051081630443</v>
       </c>
       <c r="E41" t="n">
         <v>465.0051081630443</v>
@@ -7414,19 +7414,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K41" t="n">
-        <v>416.2870901085079</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="L41" t="n">
-        <v>919.6092614732768</v>
+        <v>554.1760888379836</v>
       </c>
       <c r="M41" t="n">
-        <v>947.0538163722895</v>
+        <v>1120.368642642055</v>
       </c>
       <c r="N41" t="n">
-        <v>1501.137129238764</v>
+        <v>1674.45195550853</v>
       </c>
       <c r="O41" t="n">
-        <v>1972.09930030393</v>
+        <v>2145.414126573696</v>
       </c>
       <c r="P41" t="n">
         <v>2341.897157352074</v>
@@ -7435,28 +7435,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R41" t="n">
-        <v>2542.695873660731</v>
+        <v>2515.186428640863</v>
       </c>
       <c r="S41" t="n">
-        <v>2542.695873660731</v>
+        <v>2350.858350337231</v>
       </c>
       <c r="T41" t="n">
-        <v>2542.695873660731</v>
+        <v>2130.898687750369</v>
       </c>
       <c r="U41" t="n">
-        <v>2542.695873660731</v>
+        <v>1876.093749567063</v>
       </c>
       <c r="V41" t="n">
-        <v>2542.695873660731</v>
+        <v>1539.114475463005</v>
       </c>
       <c r="W41" t="n">
-        <v>2402.133946439088</v>
+        <v>1539.114475463005</v>
       </c>
       <c r="X41" t="n">
-        <v>2402.133946439088</v>
+        <v>1539.114475463005</v>
       </c>
       <c r="Y41" t="n">
-        <v>2008.592091014926</v>
+        <v>1145.572620038843</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J42" t="n">
-        <v>160.8988849729172</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K42" t="n">
-        <v>475.4898811303009</v>
+        <v>365.4449136305984</v>
       </c>
       <c r="L42" t="n">
-        <v>478.4682503583228</v>
+        <v>845.6948072641723</v>
       </c>
       <c r="M42" t="n">
-        <v>724.9982784708022</v>
+        <v>1464.26029610889</v>
       </c>
       <c r="N42" t="n">
-        <v>1354.315507201833</v>
+        <v>1579.359410949259</v>
       </c>
       <c r="O42" t="n">
-        <v>1871.904375166011</v>
+        <v>2096.948278913437</v>
       </c>
       <c r="P42" t="n">
-        <v>2274.635954960889</v>
+        <v>2499.679858708315</v>
       </c>
       <c r="Q42" t="n">
         <v>2499.679858708315</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1962.956280655904</v>
+        <v>434.2720203439695</v>
       </c>
       <c r="C43" t="n">
-        <v>1793.340311117584</v>
+        <v>264.6560508056498</v>
       </c>
       <c r="D43" t="n">
-        <v>1793.340311117584</v>
+        <v>111.5841576334125</v>
       </c>
       <c r="E43" t="n">
-        <v>1793.340311117584</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F43" t="n">
-        <v>1640.859656143361</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G43" t="n">
-        <v>1640.859656143361</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H43" t="n">
-        <v>1640.859656143361</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I43" t="n">
-        <v>1640.859656143361</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J43" t="n">
-        <v>1640.859656143361</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K43" t="n">
-        <v>1725.796095040803</v>
+        <v>135.7903563706568</v>
       </c>
       <c r="L43" t="n">
-        <v>1892.090782841131</v>
+        <v>302.0850441709846</v>
       </c>
       <c r="M43" t="n">
-        <v>2079.342661944297</v>
+        <v>489.3369232741505</v>
       </c>
       <c r="N43" t="n">
-        <v>2265.376567360178</v>
+        <v>675.3708286900312</v>
       </c>
       <c r="O43" t="n">
-        <v>2426.290436150368</v>
+        <v>836.2846974802213</v>
       </c>
       <c r="P43" t="n">
-        <v>2542.695873660731</v>
+        <v>952.6901349905841</v>
       </c>
       <c r="Q43" t="n">
-        <v>2542.695873660731</v>
+        <v>952.6901349905841</v>
       </c>
       <c r="R43" t="n">
-        <v>2542.695873660731</v>
+        <v>952.6901349905841</v>
       </c>
       <c r="S43" t="n">
-        <v>2542.695873660731</v>
+        <v>952.6901349905841</v>
       </c>
       <c r="T43" t="n">
-        <v>2542.695873660731</v>
+        <v>952.6901349905841</v>
       </c>
       <c r="U43" t="n">
-        <v>2542.695873660731</v>
+        <v>665.5244844485937</v>
       </c>
       <c r="V43" t="n">
-        <v>2281.960569219154</v>
+        <v>665.5244844485937</v>
       </c>
       <c r="W43" t="n">
-        <v>2281.960569219154</v>
+        <v>665.5244844485937</v>
       </c>
       <c r="X43" t="n">
-        <v>2184.991439463627</v>
+        <v>434.2720203439695</v>
       </c>
       <c r="Y43" t="n">
-        <v>1962.956280655904</v>
+        <v>434.2720203439695</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1647.713803091773</v>
+        <v>2029.647561758966</v>
       </c>
       <c r="C44" t="n">
         <v>1647.713803091773</v>
@@ -7654,13 +7654,13 @@
         <v>571.8843477377897</v>
       </c>
       <c r="L44" t="n">
-        <v>571.8843477377897</v>
+        <v>947.0538163722895</v>
       </c>
       <c r="M44" t="n">
-        <v>1138.076901541862</v>
+        <v>947.0538163722895</v>
       </c>
       <c r="N44" t="n">
-        <v>1692.160214408336</v>
+        <v>1501.137129238764</v>
       </c>
       <c r="O44" t="n">
         <v>1972.09930030393</v>
@@ -7672,28 +7672,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R44" t="n">
-        <v>2542.695873660731</v>
+        <v>2515.186428640863</v>
       </c>
       <c r="S44" t="n">
-        <v>2403.790588658334</v>
+        <v>2515.186428640863</v>
       </c>
       <c r="T44" t="n">
-        <v>2403.790588658334</v>
+        <v>2515.186428640863</v>
       </c>
       <c r="U44" t="n">
-        <v>2403.790588658334</v>
+        <v>2515.186428640863</v>
       </c>
       <c r="V44" t="n">
-        <v>2403.790588658334</v>
+        <v>2178.207154536804</v>
       </c>
       <c r="W44" t="n">
-        <v>2041.255658515935</v>
+        <v>2029.647561758966</v>
       </c>
       <c r="X44" t="n">
-        <v>2041.255658515935</v>
+        <v>2029.647561758966</v>
       </c>
       <c r="Y44" t="n">
-        <v>1647.713803091773</v>
+        <v>2029.647561758966</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J45" t="n">
-        <v>50.85391747321462</v>
+        <v>160.8988849729172</v>
       </c>
       <c r="K45" t="n">
-        <v>50.85391747321462</v>
+        <v>160.8988849729172</v>
       </c>
       <c r="L45" t="n">
-        <v>531.1038111067885</v>
+        <v>641.1487786064911</v>
       </c>
       <c r="M45" t="n">
-        <v>1149.669299951506</v>
+        <v>1259.714267451209</v>
       </c>
       <c r="N45" t="n">
-        <v>1778.986528682537</v>
+        <v>1889.031496182239</v>
       </c>
       <c r="O45" t="n">
-        <v>2296.575396646714</v>
+        <v>2406.620364146417</v>
       </c>
       <c r="P45" t="n">
         <v>2499.679858708315</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>336.8648869666594</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C46" t="n">
-        <v>336.8648869666594</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D46" t="n">
-        <v>336.8648869666594</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E46" t="n">
-        <v>336.8648869666594</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F46" t="n">
-        <v>336.8648869666594</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G46" t="n">
-        <v>336.8648869666594</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H46" t="n">
-        <v>181.5002436782387</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I46" t="n">
         <v>50.85391747321462</v>
@@ -7836,22 +7836,22 @@
         <v>952.6901349905841</v>
       </c>
       <c r="T46" t="n">
-        <v>952.6901349905841</v>
+        <v>721.4373177042012</v>
       </c>
       <c r="U46" t="n">
-        <v>781.1555600926165</v>
+        <v>559.0454777635384</v>
       </c>
       <c r="V46" t="n">
-        <v>520.4202556510392</v>
+        <v>559.0454777635384</v>
       </c>
       <c r="W46" t="n">
-        <v>520.4202556510392</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="X46" t="n">
-        <v>520.4202556510392</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="Y46" t="n">
-        <v>520.4202556510392</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155851</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
@@ -8066,19 +8066,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>222.1494342538443</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8236,7 +8236,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8297,7 +8297,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>264.0849600220859</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>112.5754335711478</v>
@@ -8315,7 +8315,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>193.3806259623375</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8543,16 +8543,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>333.2735058407155</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>360.9263022629402</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8771,7 +8771,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>201.6979228743346</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8786,10 +8786,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>86.44282166891928</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8947,7 +8947,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>276.009487857876</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9005,10 +9005,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K15" t="n">
-        <v>78.99621350193966</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9017,7 +9017,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>561.2086880137338</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.3502911080176</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9242,10 +9242,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>52.76181311454912</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>26.03612512909588</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9254,16 +9254,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>291.170642590158</v>
       </c>
       <c r="P18" t="n">
-        <v>387.3710975937089</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>45.78339956425417</v>
+        <v>45.7833995642542</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9482,25 +9482,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>26.03612512909586</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>273.4096775774271</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>269.0450023253015</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>7.202023681536446</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.78339956425417</v>
+        <v>45.78339956425418</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,16 +9716,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>52.76181311454911</v>
+        <v>52.76181311454912</v>
       </c>
       <c r="K24" t="n">
-        <v>26.03612512909586</v>
+        <v>26.03612512909588</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>384.5662104054095</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9734,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>193.151226762328</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.78339956425417</v>
+        <v>45.78339956425418</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,10 +9953,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>52.76181311454911</v>
+        <v>52.76181311454912</v>
       </c>
       <c r="K27" t="n">
-        <v>26.03612512909586</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9965,7 +9965,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>402.2947141770292</v>
+        <v>84.52603118977298</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9974,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.78339956425417</v>
+        <v>45.78339956425418</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,10 +10190,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>52.76181311454912</v>
       </c>
       <c r="K30" t="n">
-        <v>26.03612512909586</v>
+        <v>201.0137648137753</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10202,7 +10202,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>291.1381813490468</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10211,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.78339956425417</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,7 +10427,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>52.76181311454911</v>
+        <v>52.76181311454912</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10439,16 +10439,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>369.2299717571716</v>
+        <v>84.52603118977298</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>45.78339956425418</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10667,22 +10667,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>26.03612512909586</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8921786354596</v>
+        <v>351.4690067444407</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>7.202023681536431</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10840,10 +10840,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229277</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578764</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10904,19 +10904,19 @@
         <v>52.76181311454911</v>
       </c>
       <c r="K39" t="n">
-        <v>26.03612512909586</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>66.79752741815322</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>291.170642590158</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11062,13 +11062,13 @@
         <v>62.6566526234113</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>52.26461953918755</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>40.177695656784</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
         <v>568.5510017355793</v>
@@ -11077,7 +11077,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229274</v>
+        <v>243.2728395423555</v>
       </c>
       <c r="Q41" t="n">
         <v>276.0094878578761</v>
@@ -11138,19 +11138,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>52.76181311454911</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>229.6231881959715</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>603.9382674429662</v>
+        <v>84.52603118977298</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11159,7 +11159,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>45.78339956425417</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11302,16 +11302,16 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>34.55334521379876</v>
+        <v>413.5124044405663</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>12.45592303151864</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>302.0876243591727</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
         <v>418.3383206229274</v>
@@ -11375,7 +11375,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>52.76181311454911</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>26.03612512909586</v>
@@ -11393,7 +11393,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>212.3580459659817</v>
+        <v>101.2015131379993</v>
       </c>
       <c r="Q45" t="n">
         <v>45.78339956425417</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
@@ -23269,16 +23269,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>274.9267762408818</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>105.0929214873437</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>151.5411742405149</v>
@@ -23433,13 +23433,13 @@
         <v>167.0592210434877</v>
       </c>
       <c r="H13" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>137.6086505120454</v>
+        <v>23.44802776323593</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
         <v>230.1151168515673</v>
@@ -23475,7 +23475,7 @@
         <v>284.3089918374816</v>
       </c>
       <c r="V13" t="n">
-        <v>192.5070762851643</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
         <v>283.2948374677749</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,10 +23506,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>46.97508942536484</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>59.93393838739004</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>378.2098390737216</v>
@@ -23658,13 +23658,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>43.83788769905665</v>
       </c>
       <c r="E16" t="n">
-        <v>139.2229469884939</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.0592210434877</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
         <v>230.1151168515673</v>
@@ -23712,10 +23712,10 @@
         <v>284.3089918374816</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>49.51721104280307</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>27.23435056966957</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>162.6847975205959</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7600659609929</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>150.0401694366196</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23910,10 +23910,10 @@
         <v>153.8109968555364</v>
       </c>
       <c r="I19" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>27.90397835000485</v>
+        <v>27.90397835000486</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.7812841491240832</v>
       </c>
       <c r="R19" t="n">
         <v>127.959751934126</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U19" t="n">
         <v>284.2939940365704</v>
@@ -23955,10 +23955,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>27.76665994050626</v>
+        <v>147.1997568404826</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>287.0539592634128</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>138.5019509139449</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>94.97341939609777</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -24150,7 +24150,7 @@
         <v>129.3398629429739</v>
       </c>
       <c r="J22" t="n">
-        <v>27.90397835000485</v>
+        <v>27.90397835000486</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7812841491240761</v>
+        <v>0.7812841491240832</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S22" t="n">
-        <v>203.7950511593192</v>
+        <v>88.31840847767189</v>
       </c>
       <c r="T22" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>284.2939940365704</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>219.8148072196457</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I23" t="n">
-        <v>36.42580077306701</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>27.23435056966956</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.7600659609929</v>
@@ -24268,10 +24268,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>142.3327511209274</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -24381,13 +24381,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>27.90397835000486</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7812841491240761</v>
+        <v>0.7812841491240832</v>
       </c>
       <c r="R25" t="n">
         <v>127.959751934126</v>
@@ -24417,13 +24417,13 @@
         <v>203.7950511593192</v>
       </c>
       <c r="T25" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>284.2939940365704</v>
       </c>
       <c r="V25" t="n">
-        <v>145.179293900405</v>
+        <v>162.5692687457814</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
@@ -24432,7 +24432,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>350.5842319964709</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9480201594387</v>
@@ -24463,7 +24463,7 @@
         <v>319.3037704263417</v>
       </c>
       <c r="I26" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>299.8150123962363</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.43073062326353</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -24618,13 +24618,13 @@
         <v>166.7842613601147</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8109968555364</v>
+        <v>2.513497319672581</v>
       </c>
       <c r="I28" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>27.90397835000485</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7812841491240761</v>
+        <v>0.7812841491240832</v>
       </c>
       <c r="R28" t="n">
         <v>127.959751934126</v>
       </c>
       <c r="S28" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -24685,13 +24685,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>159.025841240523</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>27.23435056966956</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.7600659609929</v>
@@ -24739,16 +24739,16 @@
         <v>252.2568888014727</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>5.824362737322417</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.501818746450084</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>64.20029334823097</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7842613601147</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>153.8109968555364</v>
@@ -24861,7 +24861,7 @@
         <v>129.3398629429739</v>
       </c>
       <c r="J31" t="n">
-        <v>27.90397835000485</v>
+        <v>27.90397835000486</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7812841491240761</v>
+        <v>0.7812841491240832</v>
       </c>
       <c r="R31" t="n">
         <v>127.959751934126</v>
@@ -24891,19 +24891,19 @@
         <v>203.7950511593192</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U31" t="n">
         <v>284.2939940365704</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>331.4124159084942</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>27.23435056966956</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>162.6847975205958</v>
       </c>
       <c r="T32" t="n">
-        <v>53.10819710242342</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25098,7 +25098,7 @@
         <v>129.3398629429739</v>
       </c>
       <c r="J34" t="n">
-        <v>27.90397835000485</v>
+        <v>27.90397835000486</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7812841491240761</v>
+        <v>0.7812841491240832</v>
       </c>
       <c r="R34" t="n">
         <v>127.959751934126</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V34" t="n">
-        <v>82.33943036437455</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>43.02677996812199</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>387.1182327458284</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>27.23435056966956</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>178.2383292959697</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>27.90397835000485</v>
@@ -25368,19 +25368,19 @@
         <v>228.9402891135191</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2939940365704</v>
+        <v>160.8722439364511</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.745176343016</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>24.08025866662388</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>319.3037704263417</v>
+        <v>113.2018514359877</v>
       </c>
       <c r="I38" t="n">
         <v>132.732122105711</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7600659609929</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>252.2568888014727</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>29.05495141776306</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7842613601147</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>27.90397835000485</v>
@@ -25599,25 +25599,25 @@
         <v>127.959751934126</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T40" t="n">
         <v>228.9402891135191</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>126.5716978765475</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>94.45568844631936</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>27.23435056966956</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7600659609929</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>219.7532728915482</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>90.36598633769844</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>166.7842613601147</v>
@@ -25842,19 +25842,19 @@
         <v>228.9402891135191</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>132.9405010056064</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>27.23435056966956</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>25.168565368223</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T44" t="n">
         <v>217.7600659609929</v>
@@ -25924,16 +25924,16 @@
         <v>252.2568888014727</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>211.8355839909152</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -26040,10 +26040,10 @@
         <v>166.7842613601147</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J46" t="n">
         <v>27.90397835000485</v>
@@ -26076,22 +26076,22 @@
         <v>203.7950511593192</v>
       </c>
       <c r="T46" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.4747648875825</v>
+        <v>123.5260724953143</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>582958.3386642948</v>
+        <v>582958.3386642949</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>582958.3386642952</v>
+        <v>582958.3386642948</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645258.5989928272</v>
+        <v>645258.5989928271</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645258.5989928275</v>
+        <v>645258.5989928273</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645258.5989928272</v>
+        <v>645258.5989928273</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>645258.5989928272</v>
+        <v>645258.5989928275</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645258.5989928273</v>
+        <v>645258.5989928272</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645258.5989928272</v>
+        <v>645258.5989928273</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>580743.7121746453</v>
+        <v>580743.7121746452</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594908.646882991</v>
+        <v>594908.6468829911</v>
       </c>
       <c r="C2" t="n">
         <v>594908.6468829911</v>
       </c>
       <c r="D2" t="n">
-        <v>594908.646882991</v>
+        <v>594908.6468829912</v>
       </c>
       <c r="E2" t="n">
-        <v>391313.0933577924</v>
+        <v>391313.0933577926</v>
       </c>
       <c r="F2" t="n">
-        <v>391313.0933577924</v>
+        <v>391313.0933577925</v>
       </c>
       <c r="G2" t="n">
-        <v>444537.9533047056</v>
+        <v>444537.9533047054</v>
       </c>
       <c r="H2" t="n">
         <v>444537.9533047054</v>
@@ -26337,25 +26337,25 @@
         <v>444537.9533047054</v>
       </c>
       <c r="J2" t="n">
-        <v>444537.9533047053</v>
+        <v>444537.9533047054</v>
       </c>
       <c r="K2" t="n">
+        <v>444537.9533047054</v>
+      </c>
+      <c r="L2" t="n">
         <v>444537.9533047055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>444537.9533047054</v>
       </c>
       <c r="M2" t="n">
         <v>444537.9533047054</v>
       </c>
       <c r="N2" t="n">
-        <v>444537.9533047057</v>
+        <v>444537.9533047054</v>
       </c>
       <c r="O2" t="n">
         <v>402132.1360178581</v>
       </c>
       <c r="P2" t="n">
-        <v>402132.1360178581</v>
+        <v>402132.1360178582</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>167097.7572668309</v>
+        <v>167097.757266831</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27504.83665689657</v>
+        <v>27504.83665689659</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,19 +26429,19 @@
         <v>91146.34410324035</v>
       </c>
       <c r="F4" t="n">
-        <v>91146.34410324035</v>
+        <v>91146.34410324034</v>
       </c>
       <c r="G4" t="n">
         <v>86575.55991491837</v>
       </c>
       <c r="H4" t="n">
-        <v>86575.55991491835</v>
+        <v>86575.55991491837</v>
       </c>
       <c r="I4" t="n">
         <v>86575.55991491837</v>
       </c>
       <c r="J4" t="n">
-        <v>86575.55991491835</v>
+        <v>86575.55991491837</v>
       </c>
       <c r="K4" t="n">
         <v>86575.55991491837</v>
@@ -26450,16 +26450,16 @@
         <v>86575.55991491837</v>
       </c>
       <c r="M4" t="n">
+        <v>86575.55991491835</v>
+      </c>
+      <c r="N4" t="n">
         <v>86575.55991491837</v>
-      </c>
-      <c r="N4" t="n">
-        <v>86575.55991491838</v>
       </c>
       <c r="O4" t="n">
         <v>75326.18485667906</v>
       </c>
       <c r="P4" t="n">
-        <v>75326.18485667907</v>
+        <v>75326.18485667906</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77896.2771491374</v>
+        <v>77896.27714913752</v>
       </c>
       <c r="C6" t="n">
         <v>253937.4618666649</v>
       </c>
       <c r="D6" t="n">
-        <v>253937.4618666648</v>
+        <v>253937.461866665</v>
       </c>
       <c r="E6" t="n">
-        <v>150160.6801429462</v>
+        <v>143593.0816421335</v>
       </c>
       <c r="F6" t="n">
-        <v>259446.5467922474</v>
+        <v>252878.9482914346</v>
       </c>
       <c r="G6" t="n">
-        <v>136050.9844200594</v>
+        <v>131200.3168852758</v>
       </c>
       <c r="H6" t="n">
-        <v>303148.7416868902</v>
+        <v>298298.0741521067</v>
       </c>
       <c r="I6" t="n">
-        <v>303148.7416868902</v>
+        <v>298298.0741521068</v>
       </c>
       <c r="J6" t="n">
-        <v>165706.3108951129</v>
+        <v>160855.6433603297</v>
       </c>
       <c r="K6" t="n">
-        <v>303148.7416868903</v>
+        <v>298298.0741521068</v>
       </c>
       <c r="L6" t="n">
-        <v>303148.7416868902</v>
+        <v>298298.0741521068</v>
       </c>
       <c r="M6" t="n">
-        <v>275643.9050299936</v>
+        <v>270793.2374952103</v>
       </c>
       <c r="N6" t="n">
-        <v>303148.7416868904</v>
+        <v>298298.0741521068</v>
       </c>
       <c r="O6" t="n">
-        <v>282761.7360902434</v>
+        <v>276543.1389655617</v>
       </c>
       <c r="P6" t="n">
-        <v>282761.7360902434</v>
+        <v>276543.1389655618</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988872</v>
       </c>
       <c r="F3" t="n">
         <v>95.01032947988872</v>
       </c>
       <c r="G3" t="n">
-        <v>247.4879720776409</v>
+        <v>247.4879720776408</v>
       </c>
       <c r="H3" t="n">
         <v>247.4879720776409</v>
@@ -26807,7 +26807,7 @@
         <v>812.802860388229</v>
       </c>
       <c r="H4" t="n">
-        <v>812.802860388229</v>
+        <v>812.8028603882289</v>
       </c>
       <c r="I4" t="n">
         <v>812.802860388229</v>
@@ -26819,7 +26819,7 @@
         <v>812.802860388229</v>
       </c>
       <c r="L4" t="n">
-        <v>812.802860388229</v>
+        <v>812.8028603882289</v>
       </c>
       <c r="M4" t="n">
         <v>812.802860388229</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501925</v>
+        <v>110.3707671501926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -27390,7 +27390,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>183.6970675419813</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.47349548413322</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27466,16 +27466,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>95.13598719576729</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27514,13 +27514,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>105.2058365738111</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>5.705993047633541</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
@@ -27554,13 +27554,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>31.92923132555568</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27596,10 +27596,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27624,10 +27624,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>299.4463409818807</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>324.4769600404341</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>106.4411796807437</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>88.51861606513746</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27791,7 +27791,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27833,16 +27833,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>52.83610400431127</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>200.494698035164</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27861,16 +27861,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>368.887458458307</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>144.2173577828854</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27915,7 +27915,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6.054162332576794</v>
       </c>
       <c r="H9" t="n">
-        <v>3.603796666581346</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>92.50472251693554</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>201.8861672240931</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -31755,7 +31755,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H11" t="n">
-        <v>3.911656429290089</v>
+        <v>3.91165642929009</v>
       </c>
       <c r="I11" t="n">
         <v>14.72516875285793</v>
@@ -31764,37 +31764,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K11" t="n">
-        <v>48.58560883850209</v>
+        <v>48.5856088385021</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757805</v>
+        <v>60.27474399757806</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712768</v>
       </c>
       <c r="N11" t="n">
-        <v>68.15248488410148</v>
+        <v>68.1524848841015</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911398</v>
       </c>
       <c r="P11" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531189</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730075</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504381</v>
       </c>
       <c r="T11" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287876</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689874</v>
       </c>
       <c r="J12" t="n">
         <v>19.30771233326682</v>
@@ -31846,10 +31846,10 @@
         <v>32.99995566472701</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869709</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653935</v>
       </c>
       <c r="N12" t="n">
         <v>53.1511087530936</v>
@@ -31870,7 +31870,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133746</v>
       </c>
       <c r="U12" t="n">
         <v>0.01344485794526728</v>
@@ -31925,10 +31925,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891968</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511018</v>
       </c>
       <c r="N13" t="n">
         <v>26.21817829729455</v>
@@ -31940,19 +31940,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.34655975146319</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795564</v>
+        <v>7.703624419795565</v>
       </c>
       <c r="S13" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884371</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106178</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497261</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,25 +32226,25 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9949265209151386</v>
+        <v>0.9949265209151383</v>
       </c>
       <c r="H17" t="n">
-        <v>10.18929123232217</v>
+        <v>10.18929123232216</v>
       </c>
       <c r="I17" t="n">
-        <v>38.35690469758092</v>
+        <v>38.35690469758091</v>
       </c>
       <c r="J17" t="n">
-        <v>84.44314480452132</v>
+        <v>84.4431448045213</v>
       </c>
       <c r="K17" t="n">
-        <v>126.5583844348592</v>
+        <v>126.5583844348591</v>
       </c>
       <c r="L17" t="n">
         <v>157.0068669493158</v>
       </c>
       <c r="M17" t="n">
-        <v>174.7003914656405</v>
+        <v>174.7003914656404</v>
       </c>
       <c r="N17" t="n">
         <v>177.5272264431906</v>
@@ -32253,22 +32253,22 @@
         <v>167.6339258508407</v>
       </c>
       <c r="P17" t="n">
-        <v>143.0716773657482</v>
+        <v>143.0716773657481</v>
       </c>
       <c r="Q17" t="n">
         <v>107.4408713354747</v>
       </c>
       <c r="R17" t="n">
-        <v>62.49755306943563</v>
+        <v>62.49755306943561</v>
       </c>
       <c r="S17" t="n">
         <v>22.67188809535374</v>
       </c>
       <c r="T17" t="n">
-        <v>4.355290845306021</v>
+        <v>4.35529084530602</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07959412167321107</v>
+        <v>0.07959412167321105</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5323326191858692</v>
+        <v>0.532332619185869</v>
       </c>
       <c r="H18" t="n">
-        <v>5.141212401084579</v>
+        <v>5.141212401084577</v>
       </c>
       <c r="I18" t="n">
         <v>18.3281186868819</v>
       </c>
       <c r="J18" t="n">
-        <v>50.29375855211758</v>
+        <v>50.29375855211757</v>
       </c>
       <c r="K18" t="n">
-        <v>85.96004403757081</v>
+        <v>85.9600440375708</v>
       </c>
       <c r="L18" t="n">
         <v>115.5838873368265</v>
       </c>
       <c r="M18" t="n">
-        <v>134.8809447823143</v>
+        <v>134.8809447823142</v>
       </c>
       <c r="N18" t="n">
         <v>138.4508420399248</v>
@@ -32335,16 +32335,16 @@
         <v>101.6521823426069</v>
       </c>
       <c r="Q18" t="n">
-        <v>67.95179188063832</v>
+        <v>67.9517918806383</v>
       </c>
       <c r="R18" t="n">
-        <v>33.05131823331213</v>
+        <v>33.05131823331212</v>
       </c>
       <c r="S18" t="n">
-        <v>9.887844922158571</v>
+        <v>9.887844922158569</v>
       </c>
       <c r="T18" t="n">
-        <v>2.145674022069358</v>
+        <v>2.145674022069357</v>
       </c>
       <c r="U18" t="n">
         <v>0.03502188284117561</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4462897857137786</v>
+        <v>0.4462897857137785</v>
       </c>
       <c r="H19" t="n">
         <v>3.967921912982507</v>
@@ -32393,40 +32393,40 @@
         <v>13.42115101037436</v>
       </c>
       <c r="J19" t="n">
-        <v>31.55268784996415</v>
+        <v>31.55268784996414</v>
       </c>
       <c r="K19" t="n">
-        <v>51.85075874020082</v>
+        <v>51.8507587402008</v>
       </c>
       <c r="L19" t="n">
-        <v>66.35111959602852</v>
+        <v>66.3511195960285</v>
       </c>
       <c r="M19" t="n">
-        <v>69.95795250056986</v>
+        <v>69.95795250056983</v>
       </c>
       <c r="N19" t="n">
-        <v>68.29450875381855</v>
+        <v>68.29450875381853</v>
       </c>
       <c r="O19" t="n">
-        <v>63.08103262070757</v>
+        <v>63.08103262070755</v>
       </c>
       <c r="P19" t="n">
-        <v>53.97672099214644</v>
+        <v>53.97672099214643</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.37068378372378</v>
+        <v>37.37068378372377</v>
       </c>
       <c r="R19" t="n">
         <v>20.06681163763953</v>
       </c>
       <c r="S19" t="n">
-        <v>7.777613811030121</v>
+        <v>7.777613811030119</v>
       </c>
       <c r="T19" t="n">
-        <v>1.906874538958872</v>
+        <v>1.906874538958871</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02434307922075159</v>
+        <v>0.02434307922075158</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,25 +32463,25 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9949265209151386</v>
+        <v>0.9949265209151384</v>
       </c>
       <c r="H20" t="n">
-        <v>10.18929123232217</v>
+        <v>10.18929123232216</v>
       </c>
       <c r="I20" t="n">
-        <v>38.35690469758092</v>
+        <v>38.35690469758091</v>
       </c>
       <c r="J20" t="n">
-        <v>84.44314480452132</v>
+        <v>84.44314480452131</v>
       </c>
       <c r="K20" t="n">
-        <v>126.5583844348592</v>
+        <v>126.5583844348591</v>
       </c>
       <c r="L20" t="n">
         <v>157.0068669493158</v>
       </c>
       <c r="M20" t="n">
-        <v>174.7003914656405</v>
+        <v>174.7003914656404</v>
       </c>
       <c r="N20" t="n">
         <v>177.5272264431906</v>
@@ -32496,7 +32496,7 @@
         <v>107.4408713354747</v>
       </c>
       <c r="R20" t="n">
-        <v>62.49755306943563</v>
+        <v>62.49755306943562</v>
       </c>
       <c r="S20" t="n">
         <v>22.67188809535374</v>
@@ -32505,7 +32505,7 @@
         <v>4.355290845306021</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07959412167321107</v>
+        <v>0.07959412167321106</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5323326191858692</v>
+        <v>0.532332619185869</v>
       </c>
       <c r="H21" t="n">
-        <v>5.141212401084579</v>
+        <v>5.141212401084578</v>
       </c>
       <c r="I21" t="n">
         <v>18.3281186868819</v>
       </c>
       <c r="J21" t="n">
-        <v>50.29375855211758</v>
+        <v>50.29375855211757</v>
       </c>
       <c r="K21" t="n">
-        <v>85.96004403757081</v>
+        <v>85.9600440375708</v>
       </c>
       <c r="L21" t="n">
         <v>115.5838873368265</v>
@@ -32572,13 +32572,13 @@
         <v>101.6521823426069</v>
       </c>
       <c r="Q21" t="n">
-        <v>67.95179188063832</v>
+        <v>67.95179188063831</v>
       </c>
       <c r="R21" t="n">
         <v>33.05131823331213</v>
       </c>
       <c r="S21" t="n">
-        <v>9.887844922158571</v>
+        <v>9.887844922158569</v>
       </c>
       <c r="T21" t="n">
         <v>2.145674022069358</v>
@@ -32630,34 +32630,34 @@
         <v>13.42115101037436</v>
       </c>
       <c r="J22" t="n">
-        <v>31.55268784996415</v>
+        <v>31.55268784996414</v>
       </c>
       <c r="K22" t="n">
-        <v>51.85075874020082</v>
+        <v>51.85075874020081</v>
       </c>
       <c r="L22" t="n">
-        <v>66.35111959602852</v>
+        <v>66.35111959602851</v>
       </c>
       <c r="M22" t="n">
-        <v>69.95795250056986</v>
+        <v>69.95795250056985</v>
       </c>
       <c r="N22" t="n">
         <v>68.29450875381855</v>
       </c>
       <c r="O22" t="n">
-        <v>63.08103262070757</v>
+        <v>63.08103262070756</v>
       </c>
       <c r="P22" t="n">
-        <v>53.97672099214644</v>
+        <v>53.97672099214643</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.37068378372378</v>
+        <v>37.37068378372377</v>
       </c>
       <c r="R22" t="n">
         <v>20.06681163763953</v>
       </c>
       <c r="S22" t="n">
-        <v>7.777613811030121</v>
+        <v>7.77761381103012</v>
       </c>
       <c r="T22" t="n">
         <v>1.906874538958872</v>
@@ -32700,25 +32700,25 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9949265209151386</v>
+        <v>0.9949265209151384</v>
       </c>
       <c r="H23" t="n">
-        <v>10.18929123232217</v>
+        <v>10.18929123232216</v>
       </c>
       <c r="I23" t="n">
-        <v>38.35690469758092</v>
+        <v>38.35690469758091</v>
       </c>
       <c r="J23" t="n">
-        <v>84.44314480452132</v>
+        <v>84.44314480452131</v>
       </c>
       <c r="K23" t="n">
-        <v>126.5583844348592</v>
+        <v>126.5583844348591</v>
       </c>
       <c r="L23" t="n">
         <v>157.0068669493158</v>
       </c>
       <c r="M23" t="n">
-        <v>174.7003914656405</v>
+        <v>174.7003914656404</v>
       </c>
       <c r="N23" t="n">
         <v>177.5272264431906</v>
@@ -32733,7 +32733,7 @@
         <v>107.4408713354747</v>
       </c>
       <c r="R23" t="n">
-        <v>62.49755306943563</v>
+        <v>62.49755306943562</v>
       </c>
       <c r="S23" t="n">
         <v>22.67188809535374</v>
@@ -32742,7 +32742,7 @@
         <v>4.355290845306021</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07959412167321107</v>
+        <v>0.07959412167321106</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5323326191858692</v>
+        <v>0.532332619185869</v>
       </c>
       <c r="H24" t="n">
-        <v>5.141212401084579</v>
+        <v>5.141212401084578</v>
       </c>
       <c r="I24" t="n">
         <v>18.3281186868819</v>
       </c>
       <c r="J24" t="n">
-        <v>50.29375855211758</v>
+        <v>50.29375855211757</v>
       </c>
       <c r="K24" t="n">
-        <v>85.96004403757081</v>
+        <v>85.9600440375708</v>
       </c>
       <c r="L24" t="n">
         <v>115.5838873368265</v>
@@ -32809,13 +32809,13 @@
         <v>101.6521823426069</v>
       </c>
       <c r="Q24" t="n">
-        <v>67.95179188063832</v>
+        <v>67.95179188063831</v>
       </c>
       <c r="R24" t="n">
         <v>33.05131823331213</v>
       </c>
       <c r="S24" t="n">
-        <v>9.887844922158571</v>
+        <v>9.887844922158569</v>
       </c>
       <c r="T24" t="n">
         <v>2.145674022069358</v>
@@ -32867,34 +32867,34 @@
         <v>13.42115101037436</v>
       </c>
       <c r="J25" t="n">
-        <v>31.55268784996415</v>
+        <v>31.55268784996414</v>
       </c>
       <c r="K25" t="n">
-        <v>51.85075874020082</v>
+        <v>51.85075874020081</v>
       </c>
       <c r="L25" t="n">
-        <v>66.35111959602852</v>
+        <v>66.35111959602851</v>
       </c>
       <c r="M25" t="n">
-        <v>69.95795250056986</v>
+        <v>69.95795250056985</v>
       </c>
       <c r="N25" t="n">
         <v>68.29450875381855</v>
       </c>
       <c r="O25" t="n">
-        <v>63.08103262070757</v>
+        <v>63.08103262070756</v>
       </c>
       <c r="P25" t="n">
-        <v>53.97672099214644</v>
+        <v>53.97672099214643</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.37068378372378</v>
+        <v>37.37068378372377</v>
       </c>
       <c r="R25" t="n">
         <v>20.06681163763953</v>
       </c>
       <c r="S25" t="n">
-        <v>7.777613811030121</v>
+        <v>7.77761381103012</v>
       </c>
       <c r="T25" t="n">
         <v>1.906874538958872</v>
@@ -32937,25 +32937,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9949265209151386</v>
+        <v>0.9949265209151384</v>
       </c>
       <c r="H26" t="n">
-        <v>10.18929123232217</v>
+        <v>10.18929123232216</v>
       </c>
       <c r="I26" t="n">
-        <v>38.35690469758092</v>
+        <v>38.35690469758091</v>
       </c>
       <c r="J26" t="n">
-        <v>84.44314480452132</v>
+        <v>84.44314480452131</v>
       </c>
       <c r="K26" t="n">
-        <v>126.5583844348592</v>
+        <v>126.5583844348591</v>
       </c>
       <c r="L26" t="n">
         <v>157.0068669493158</v>
       </c>
       <c r="M26" t="n">
-        <v>174.7003914656405</v>
+        <v>174.7003914656404</v>
       </c>
       <c r="N26" t="n">
         <v>177.5272264431906</v>
@@ -32970,7 +32970,7 @@
         <v>107.4408713354747</v>
       </c>
       <c r="R26" t="n">
-        <v>62.49755306943563</v>
+        <v>62.49755306943562</v>
       </c>
       <c r="S26" t="n">
         <v>22.67188809535374</v>
@@ -32979,7 +32979,7 @@
         <v>4.355290845306021</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07959412167321107</v>
+        <v>0.07959412167321106</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5323326191858692</v>
+        <v>0.532332619185869</v>
       </c>
       <c r="H27" t="n">
-        <v>5.141212401084579</v>
+        <v>5.141212401084578</v>
       </c>
       <c r="I27" t="n">
         <v>18.3281186868819</v>
       </c>
       <c r="J27" t="n">
-        <v>50.29375855211758</v>
+        <v>50.29375855211757</v>
       </c>
       <c r="K27" t="n">
-        <v>85.96004403757081</v>
+        <v>85.9600440375708</v>
       </c>
       <c r="L27" t="n">
         <v>115.5838873368265</v>
@@ -33046,13 +33046,13 @@
         <v>101.6521823426069</v>
       </c>
       <c r="Q27" t="n">
-        <v>67.95179188063832</v>
+        <v>67.95179188063831</v>
       </c>
       <c r="R27" t="n">
         <v>33.05131823331213</v>
       </c>
       <c r="S27" t="n">
-        <v>9.887844922158571</v>
+        <v>9.887844922158569</v>
       </c>
       <c r="T27" t="n">
         <v>2.145674022069358</v>
@@ -33104,34 +33104,34 @@
         <v>13.42115101037436</v>
       </c>
       <c r="J28" t="n">
-        <v>31.55268784996415</v>
+        <v>31.55268784996414</v>
       </c>
       <c r="K28" t="n">
-        <v>51.85075874020082</v>
+        <v>51.85075874020081</v>
       </c>
       <c r="L28" t="n">
-        <v>66.35111959602852</v>
+        <v>66.35111959602851</v>
       </c>
       <c r="M28" t="n">
-        <v>69.95795250056986</v>
+        <v>69.95795250056985</v>
       </c>
       <c r="N28" t="n">
         <v>68.29450875381855</v>
       </c>
       <c r="O28" t="n">
-        <v>63.08103262070757</v>
+        <v>63.08103262070756</v>
       </c>
       <c r="P28" t="n">
-        <v>53.97672099214644</v>
+        <v>53.97672099214643</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.37068378372378</v>
+        <v>37.37068378372377</v>
       </c>
       <c r="R28" t="n">
         <v>20.06681163763953</v>
       </c>
       <c r="S28" t="n">
-        <v>7.777613811030121</v>
+        <v>7.77761381103012</v>
       </c>
       <c r="T28" t="n">
         <v>1.906874538958872</v>
@@ -33174,25 +33174,25 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9949265209151386</v>
+        <v>0.9949265209151384</v>
       </c>
       <c r="H29" t="n">
-        <v>10.18929123232217</v>
+        <v>10.18929123232216</v>
       </c>
       <c r="I29" t="n">
-        <v>38.35690469758092</v>
+        <v>38.35690469758091</v>
       </c>
       <c r="J29" t="n">
-        <v>84.44314480452132</v>
+        <v>84.44314480452131</v>
       </c>
       <c r="K29" t="n">
-        <v>126.5583844348592</v>
+        <v>126.5583844348591</v>
       </c>
       <c r="L29" t="n">
         <v>157.0068669493158</v>
       </c>
       <c r="M29" t="n">
-        <v>174.7003914656405</v>
+        <v>174.7003914656404</v>
       </c>
       <c r="N29" t="n">
         <v>177.5272264431906</v>
@@ -33207,7 +33207,7 @@
         <v>107.4408713354747</v>
       </c>
       <c r="R29" t="n">
-        <v>62.49755306943563</v>
+        <v>62.49755306943562</v>
       </c>
       <c r="S29" t="n">
         <v>22.67188809535374</v>
@@ -33216,7 +33216,7 @@
         <v>4.355290845306021</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07959412167321107</v>
+        <v>0.07959412167321106</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5323326191858692</v>
+        <v>0.532332619185869</v>
       </c>
       <c r="H30" t="n">
-        <v>5.141212401084579</v>
+        <v>5.141212401084578</v>
       </c>
       <c r="I30" t="n">
         <v>18.3281186868819</v>
       </c>
       <c r="J30" t="n">
-        <v>50.29375855211758</v>
+        <v>50.29375855211757</v>
       </c>
       <c r="K30" t="n">
-        <v>85.96004403757081</v>
+        <v>85.9600440375708</v>
       </c>
       <c r="L30" t="n">
         <v>115.5838873368265</v>
@@ -33283,13 +33283,13 @@
         <v>101.6521823426069</v>
       </c>
       <c r="Q30" t="n">
-        <v>67.95179188063832</v>
+        <v>67.95179188063831</v>
       </c>
       <c r="R30" t="n">
         <v>33.05131823331213</v>
       </c>
       <c r="S30" t="n">
-        <v>9.887844922158571</v>
+        <v>9.887844922158569</v>
       </c>
       <c r="T30" t="n">
         <v>2.145674022069358</v>
@@ -33341,34 +33341,34 @@
         <v>13.42115101037436</v>
       </c>
       <c r="J31" t="n">
-        <v>31.55268784996415</v>
+        <v>31.55268784996414</v>
       </c>
       <c r="K31" t="n">
-        <v>51.85075874020082</v>
+        <v>51.85075874020081</v>
       </c>
       <c r="L31" t="n">
-        <v>66.35111959602852</v>
+        <v>66.35111959602851</v>
       </c>
       <c r="M31" t="n">
-        <v>69.95795250056986</v>
+        <v>69.95795250056985</v>
       </c>
       <c r="N31" t="n">
         <v>68.29450875381855</v>
       </c>
       <c r="O31" t="n">
-        <v>63.08103262070757</v>
+        <v>63.08103262070756</v>
       </c>
       <c r="P31" t="n">
-        <v>53.97672099214644</v>
+        <v>53.97672099214643</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.37068378372378</v>
+        <v>37.37068378372377</v>
       </c>
       <c r="R31" t="n">
         <v>20.06681163763953</v>
       </c>
       <c r="S31" t="n">
-        <v>7.777613811030121</v>
+        <v>7.77761381103012</v>
       </c>
       <c r="T31" t="n">
         <v>1.906874538958872</v>
@@ -33411,25 +33411,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9949265209151386</v>
+        <v>0.9949265209151384</v>
       </c>
       <c r="H32" t="n">
-        <v>10.18929123232217</v>
+        <v>10.18929123232216</v>
       </c>
       <c r="I32" t="n">
-        <v>38.35690469758092</v>
+        <v>38.35690469758091</v>
       </c>
       <c r="J32" t="n">
-        <v>84.44314480452132</v>
+        <v>84.44314480452131</v>
       </c>
       <c r="K32" t="n">
-        <v>126.5583844348592</v>
+        <v>126.5583844348591</v>
       </c>
       <c r="L32" t="n">
         <v>157.0068669493158</v>
       </c>
       <c r="M32" t="n">
-        <v>174.7003914656405</v>
+        <v>174.7003914656404</v>
       </c>
       <c r="N32" t="n">
         <v>177.5272264431906</v>
@@ -33444,7 +33444,7 @@
         <v>107.4408713354747</v>
       </c>
       <c r="R32" t="n">
-        <v>62.49755306943563</v>
+        <v>62.49755306943562</v>
       </c>
       <c r="S32" t="n">
         <v>22.67188809535374</v>
@@ -33453,7 +33453,7 @@
         <v>4.355290845306021</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07959412167321107</v>
+        <v>0.07959412167321106</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5323326191858692</v>
+        <v>0.532332619185869</v>
       </c>
       <c r="H33" t="n">
-        <v>5.141212401084579</v>
+        <v>5.141212401084578</v>
       </c>
       <c r="I33" t="n">
         <v>18.3281186868819</v>
       </c>
       <c r="J33" t="n">
-        <v>50.29375855211758</v>
+        <v>50.29375855211757</v>
       </c>
       <c r="K33" t="n">
-        <v>85.96004403757081</v>
+        <v>85.9600440375708</v>
       </c>
       <c r="L33" t="n">
         <v>115.5838873368265</v>
@@ -33520,13 +33520,13 @@
         <v>101.6521823426069</v>
       </c>
       <c r="Q33" t="n">
-        <v>67.95179188063832</v>
+        <v>67.95179188063831</v>
       </c>
       <c r="R33" t="n">
         <v>33.05131823331213</v>
       </c>
       <c r="S33" t="n">
-        <v>9.887844922158571</v>
+        <v>9.887844922158569</v>
       </c>
       <c r="T33" t="n">
         <v>2.145674022069358</v>
@@ -33578,34 +33578,34 @@
         <v>13.42115101037436</v>
       </c>
       <c r="J34" t="n">
-        <v>31.55268784996415</v>
+        <v>31.55268784996414</v>
       </c>
       <c r="K34" t="n">
-        <v>51.85075874020082</v>
+        <v>51.85075874020081</v>
       </c>
       <c r="L34" t="n">
-        <v>66.35111959602852</v>
+        <v>66.35111959602851</v>
       </c>
       <c r="M34" t="n">
-        <v>69.95795250056986</v>
+        <v>69.95795250056985</v>
       </c>
       <c r="N34" t="n">
         <v>68.29450875381855</v>
       </c>
       <c r="O34" t="n">
-        <v>63.08103262070757</v>
+        <v>63.08103262070756</v>
       </c>
       <c r="P34" t="n">
-        <v>53.97672099214644</v>
+        <v>53.97672099214643</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.37068378372378</v>
+        <v>37.37068378372377</v>
       </c>
       <c r="R34" t="n">
         <v>20.06681163763953</v>
       </c>
       <c r="S34" t="n">
-        <v>7.777613811030121</v>
+        <v>7.77761381103012</v>
       </c>
       <c r="T34" t="n">
         <v>1.906874538958872</v>
@@ -34704,7 +34704,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>351.3993667524709</v>
+        <v>351.3993667524705</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
@@ -34786,19 +34786,19 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>106.2899856427332</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>152.0887908554191</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>79.64543451744501</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>226.5583647730072</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>252.0720962387968</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>80.17048660913161</v>
       </c>
       <c r="K12" t="n">
-        <v>122.7017093723949</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
@@ -35506,10 +35506,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
-        <v>344.1715415558448</v>
+        <v>16.61276399284572</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P13" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q14" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001976</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L15" t="n">
         <v>413.8895281620462</v>
@@ -35737,7 +35737,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N15" t="n">
-        <v>569.5810543320048</v>
+        <v>507.6446556991191</v>
       </c>
       <c r="O15" t="n">
         <v>444.7844470457648</v>
@@ -35746,7 +35746,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q15" t="n">
-        <v>122.7017093723956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>157.1689471002846</v>
       </c>
       <c r="K17" t="n">
-        <v>369.1244168033266</v>
+        <v>369.1244168033265</v>
       </c>
       <c r="L17" t="n">
-        <v>508.4062337017868</v>
+        <v>508.4062337017867</v>
       </c>
       <c r="M17" t="n">
         <v>571.9116705091636</v>
       </c>
       <c r="N17" t="n">
-        <v>559.6801140065398</v>
+        <v>559.6801140065397</v>
       </c>
       <c r="O17" t="n">
         <v>475.7193647122891</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>111.1565328279824</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>317.7686829872563</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>485.1009026601757</v>
@@ -35974,13 +35974,13 @@
         <v>624.8136250956743</v>
       </c>
       <c r="N18" t="n">
-        <v>31.73570097221648</v>
+        <v>654.8807876188359</v>
       </c>
       <c r="O18" t="n">
-        <v>522.817038347654</v>
+        <v>301.9666658780637</v>
       </c>
       <c r="P18" t="n">
-        <v>380.1690739121725</v>
+        <v>406.7995755503819</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>85.79438272468911</v>
+        <v>85.7943827246891</v>
       </c>
       <c r="L19" t="n">
-        <v>167.9744321215432</v>
+        <v>167.9744321215431</v>
       </c>
       <c r="M19" t="n">
         <v>189.1433122254201</v>
@@ -36202,22 +36202,22 @@
         <v>111.1565328279824</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>317.7686829872563</v>
       </c>
       <c r="L21" t="n">
         <v>485.1009026601757</v>
       </c>
       <c r="M21" t="n">
-        <v>292.8067197981015</v>
+        <v>624.8136250956743</v>
       </c>
       <c r="N21" t="n">
         <v>654.8807876188359</v>
       </c>
       <c r="O21" t="n">
-        <v>522.817038347654</v>
+        <v>279.8410256132073</v>
       </c>
       <c r="P21" t="n">
-        <v>406.7995755503819</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>85.79438272468911</v>
       </c>
       <c r="L22" t="n">
-        <v>167.9744321215432</v>
+        <v>167.9744321215431</v>
       </c>
       <c r="M22" t="n">
         <v>189.1433122254201</v>
@@ -36445,7 +36445,7 @@
         <v>485.1009026601757</v>
       </c>
       <c r="M24" t="n">
-        <v>403.9632526260839</v>
+        <v>624.8136250956743</v>
       </c>
       <c r="N24" t="n">
         <v>654.8807876188359</v>
@@ -36454,7 +36454,7 @@
         <v>522.817038347654</v>
       </c>
       <c r="P24" t="n">
-        <v>406.7995755503819</v>
+        <v>185.9492030807916</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>85.79438272468911</v>
       </c>
       <c r="L25" t="n">
-        <v>167.9744321215432</v>
+        <v>167.9744321215431</v>
       </c>
       <c r="M25" t="n">
         <v>189.1433122254201</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>317.7686829872563</v>
       </c>
       <c r="L27" t="n">
         <v>485.1009026601757</v>
@@ -36685,7 +36685,7 @@
         <v>624.8136250956743</v>
       </c>
       <c r="N27" t="n">
-        <v>434.0304151492456</v>
+        <v>116.2617321619895</v>
       </c>
       <c r="O27" t="n">
         <v>522.817038347654</v>
@@ -36758,7 +36758,7 @@
         <v>85.79438272468911</v>
       </c>
       <c r="L28" t="n">
-        <v>167.9744321215432</v>
+        <v>167.9744321215431</v>
       </c>
       <c r="M28" t="n">
         <v>189.1433122254201</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>111.1565328279824</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>174.9776396846794</v>
       </c>
       <c r="L30" t="n">
         <v>485.1009026601757</v>
@@ -36922,7 +36922,7 @@
         <v>624.8136250956743</v>
       </c>
       <c r="N30" t="n">
-        <v>322.8738823212632</v>
+        <v>31.73570097221648</v>
       </c>
       <c r="O30" t="n">
         <v>522.817038347654</v>
@@ -36931,7 +36931,7 @@
         <v>406.7995755503819</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.3170744923497</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>85.79438272468911</v>
       </c>
       <c r="L31" t="n">
-        <v>167.9744321215432</v>
+        <v>167.9744321215431</v>
       </c>
       <c r="M31" t="n">
         <v>189.1433122254201</v>
@@ -37159,16 +37159,16 @@
         <v>624.8136250956743</v>
       </c>
       <c r="N33" t="n">
-        <v>400.9656727293881</v>
+        <v>116.2617321619895</v>
       </c>
       <c r="O33" t="n">
-        <v>10.79602328790574</v>
+        <v>522.817038347654</v>
       </c>
       <c r="P33" t="n">
         <v>406.7995755503819</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.3170744923497</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>85.79438272468911</v>
       </c>
       <c r="L34" t="n">
-        <v>167.9744321215432</v>
+        <v>167.9744321215431</v>
       </c>
       <c r="M34" t="n">
         <v>189.1433122254201</v>
@@ -37387,22 +37387,22 @@
         <v>111.1565328279824</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>317.7686829872563</v>
       </c>
       <c r="L36" t="n">
         <v>485.1009026601757</v>
       </c>
       <c r="M36" t="n">
-        <v>472.289220856134</v>
+        <v>370.8660489651151</v>
       </c>
       <c r="N36" t="n">
-        <v>654.8807876188359</v>
+        <v>31.73570097221648</v>
       </c>
       <c r="O36" t="n">
         <v>522.817038347654</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>406.7995755503819</v>
       </c>
       <c r="Q36" t="n">
         <v>227.3170744923497</v>
@@ -37560,10 +37560,10 @@
         <v>475.7193647122891</v>
       </c>
       <c r="P38" t="n">
-        <v>373.5331889375191</v>
+        <v>373.5331889375193</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.8269861703609</v>
+        <v>202.8269861703606</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>317.7686829872563</v>
       </c>
       <c r="L39" t="n">
         <v>485.1009026601757</v>
       </c>
       <c r="M39" t="n">
-        <v>624.8136250956743</v>
+        <v>86.19456963882762</v>
       </c>
       <c r="N39" t="n">
         <v>654.8807876188359</v>
       </c>
       <c r="O39" t="n">
-        <v>301.9666658780637</v>
+        <v>522.817038347654</v>
       </c>
       <c r="P39" t="n">
         <v>406.7995755503819</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>369.1244168033266</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>508.4062337017868</v>
       </c>
       <c r="M41" t="n">
-        <v>27.72177262526536</v>
+        <v>571.9116705091636</v>
       </c>
       <c r="N41" t="n">
         <v>559.6801140065398</v>
@@ -37797,7 +37797,7 @@
         <v>475.7193647122891</v>
       </c>
       <c r="P41" t="n">
-        <v>373.5331889375191</v>
+        <v>198.4677078569472</v>
       </c>
       <c r="Q41" t="n">
         <v>202.8269861703606</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>111.1565328279824</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>317.7686829872563</v>
       </c>
       <c r="L42" t="n">
-        <v>3.008453765678766</v>
+        <v>485.1009026601757</v>
       </c>
       <c r="M42" t="n">
-        <v>249.0202304166459</v>
+        <v>624.8136250956743</v>
       </c>
       <c r="N42" t="n">
-        <v>635.6739684151827</v>
+        <v>116.2617321619895</v>
       </c>
       <c r="O42" t="n">
         <v>522.817038347654</v>
@@ -37879,7 +37879,7 @@
         <v>406.7995755503819</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.3170744923497</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>369.1244168033266</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>378.9590592267675</v>
       </c>
       <c r="M44" t="n">
-        <v>571.9116705091636</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>559.6801140065398</v>
       </c>
       <c r="O44" t="n">
-        <v>282.7667534298929</v>
+        <v>475.7193647122891</v>
       </c>
       <c r="P44" t="n">
         <v>373.5331889375191</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>522.817038347654</v>
       </c>
       <c r="P45" t="n">
-        <v>205.1560222844452</v>
+        <v>93.99948945646283</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
